--- a/exercises/dennis/exercise_4/Task_2_subgrid_results/res_bus/vm_pu.xlsx
+++ b/exercises/dennis/exercise_4/Task_2_subgrid_results/res_bus/vm_pu.xlsx
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.0122049358175</v>
+        <v>1.012204935817487</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -407,7 +407,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.010991028104066</v>
+        <v>1.010991028103971</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.012817933872271</v>
+        <v>1.012817933872652</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.009330950458639</v>
+        <v>1.009330950458599</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.008780383476148</v>
+        <v>1.008780383476168</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.013141014921764</v>
+        <v>1.013141014921857</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.011897402884138</v>
+        <v>1.011897402884231</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.012211990396141</v>
+        <v>1.012211990396235</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.017212088202623</v>
+        <v>1.017212088202489</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -495,7 +495,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.016729011296645</v>
+        <v>1.016729011296673</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.013348165127987</v>
+        <v>1.01334816512789</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.019037182410958</v>
+        <v>1.019037182410956</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.015006048369</v>
+        <v>1.015006048369071</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.018620320446552</v>
+        <v>1.018620320446503</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -550,7 +550,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02159886667425</v>
+        <v>1.021598866674325</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -561,7 +561,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.018316218282225</v>
+        <v>1.018316218282348</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.019091851774294</v>
+        <v>1.019091851774323</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -583,7 +583,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.017004883922914</v>
+        <v>1.017004883923174</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.013953755125338</v>
+        <v>1.013953755125421</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -605,7 +605,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.019646276849906</v>
+        <v>1.019646276849858</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -616,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.018776200033937</v>
+        <v>1.0187762000339</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -627,7 +627,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.022629388485408</v>
+        <v>1.022629388485127</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.021519297683823</v>
+        <v>1.021519297683892</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.01836753553849</v>
+        <v>1.01836753553841</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -660,7 +660,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.018147694045238</v>
+        <v>1.018147694045296</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -671,7 +671,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.020022853307873</v>
+        <v>1.020022853307951</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.01903837753577</v>
+        <v>1.01903837753578</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.013212218489877</v>
+        <v>1.013212218489878</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -704,7 +704,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.00839818842851</v>
+        <v>1.008398188428599</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -715,7 +715,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.018725745229591</v>
+        <v>1.018725745229589</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.021745200865134</v>
+        <v>1.021745200865137</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.023220195330621</v>
+        <v>1.023220195330635</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.022393436108594</v>
+        <v>1.022393436108464</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -759,7 +759,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.0264607824217</v>
+        <v>1.026460782421596</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.032939482653447</v>
+        <v>1.03293948265351</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.038994047578713</v>
+        <v>1.038994047578841</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -792,7 +792,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.040130555590729</v>
+        <v>1.040130555590788</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.047246820051258</v>
+        <v>1.047246820051342</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -814,7 +814,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.051292425709301</v>
+        <v>1.051292425709088</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -825,7 +825,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.057025050830381</v>
+        <v>1.057025050830308</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.063005090558873</v>
+        <v>1.063005090558802</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.067592522173788</v>
+        <v>1.067592522173744</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -858,7 +858,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.077586647151336</v>
+        <v>1.077586647151453</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -869,7 +869,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.073571689173417</v>
+        <v>1.07357168917345</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.078792988534963</v>
+        <v>1.0787929885352</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.076334275497073</v>
+        <v>1.076334275497218</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.083011456854357</v>
+        <v>1.083011456854437</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.076466325457839</v>
+        <v>1.076466325457848</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.07858006859408</v>
+        <v>1.078580068594174</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.078623599408625</v>
+        <v>1.078623599408554</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.069765492433273</v>
+        <v>1.069765492433319</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -957,7 +957,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.071438440377865</v>
+        <v>1.071438440377981</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.069172772304603</v>
+        <v>1.069172772304779</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.066708970977027</v>
+        <v>1.066708970977124</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -990,7 +990,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.064118613956589</v>
+        <v>1.064118613956588</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.065800397065187</v>
+        <v>1.065800397064926</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.060222919287676</v>
+        <v>1.060222919287541</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1023,7 +1023,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.060092010831206</v>
+        <v>1.060092010831152</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.057169786677015</v>
+        <v>1.057169786677104</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1045,7 +1045,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.05320593516178</v>
+        <v>1.053205935161674</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1056,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.053374760542728</v>
+        <v>1.05337476054292</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.047772533055541</v>
+        <v>1.047772533055322</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.051584853179198</v>
+        <v>1.051584853179248</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.046084040500333</v>
+        <v>1.04608404050037</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1100,7 +1100,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.039608141645397</v>
+        <v>1.039608141645511</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.033083765348667</v>
+        <v>1.033083765348565</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1122,7 +1122,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.026940770048088</v>
+        <v>1.026940770048231</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.022399023159077</v>
+        <v>1.022399023159059</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.009623613845548</v>
+        <v>1.00962361384564</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1155,7 +1155,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.005899308647787</v>
+        <v>1.005899308647773</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.001990772670419</v>
+        <v>1.001990772670343</v>
       </c>
       <c r="C72">
-        <v>0.9943844949944904</v>
+        <v>0.9943844949943751</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>0.9813364946958794</v>
+        <v>0.9813364946959646</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>0.9788768730554213</v>
+        <v>0.978876873055574</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>0.9688385109088605</v>
+        <v>0.9688385109086207</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>0.9550138305916747</v>
+        <v>0.9550138305917345</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>0.9467144240678511</v>
+        <v>0.9467144240677813</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>0.9353263633253717</v>
+        <v>0.9353263633253378</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>0.940447622938426</v>
+        <v>0.9404476229383277</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>0.9355822309398867</v>
+        <v>0.9355822309399124</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>0.9335787849520302</v>
+        <v>0.9335787849521046</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>0.9255940090909729</v>
+        <v>0.9255940090911083</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>0.9317207567735688</v>
+        <v>0.9317207567736472</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>0.9400027063785803</v>
+        <v>0.9400027063786849</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>0.9397816838767805</v>
+        <v>0.939781683876918</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>0.9506341245889285</v>
+        <v>0.9506341245890162</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>0.9458753484059176</v>
+        <v>0.945875348405948</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>0.9503186390682549</v>
+        <v>0.9503186390684647</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>0.9643452389114558</v>
+        <v>0.964345238911542</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>0.9618358284328556</v>
+        <v>0.9618358284328046</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>0.9717623610495744</v>
+        <v>0.971762361049567</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>0.9823228149074847</v>
+        <v>0.9823228149077105</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.001057670228259</v>
+        <v>1.001057670228225</v>
       </c>
       <c r="C93">
-        <v>0.9896575903867809</v>
+        <v>0.9896575903868149</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.001967037515313</v>
+        <v>1.001967037515318</v>
       </c>
       <c r="C94">
-        <v>0.9942217712959055</v>
+        <v>0.9942217712959239</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,7 +1419,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.003323747748136</v>
+        <v>1.003323747748123</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -1430,7 +1430,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.006531268350239</v>
+        <v>1.00653126835014</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.011420260201815</v>
+        <v>1.011420260201913</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -1452,7 +1452,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.007709380935252</v>
+        <v>1.007709380935288</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.011672733208125</v>
+        <v>1.011672733208067</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -1474,7 +1474,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.011807529875688</v>
+        <v>1.011807529875677</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.015946569858647</v>
+        <v>1.015946569858653</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.011562962172712</v>
+        <v>1.011562962172683</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1507,7 +1507,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.015324499092855</v>
+        <v>1.015324499092786</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.013693714381432</v>
+        <v>1.013693714381363</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.016993503756724</v>
+        <v>1.016993503756805</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -1540,7 +1540,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.014355917805191</v>
+        <v>1.014355917805201</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -1551,7 +1551,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.015456483366703</v>
+        <v>1.015456483366803</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.017579442194382</v>
+        <v>1.017579442194531</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.019656045369398</v>
+        <v>1.019656045369624</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -1584,7 +1584,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.017152654691799</v>
+        <v>1.017152654691821</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -1595,7 +1595,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.01879755094688</v>
+        <v>1.018797550947056</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -1606,7 +1606,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.016920929223667</v>
+        <v>1.016920929223771</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -1617,7 +1617,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.013777390568162</v>
+        <v>1.013777390568178</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.01319186100879</v>
+        <v>1.013191861008883</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.014671048873891</v>
+        <v>1.014671048873941</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.019802778666534</v>
+        <v>1.01980277866659</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.017346521444982</v>
+        <v>1.017346521445028</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.02105241366201</v>
+        <v>1.02105241366213</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -1683,7 +1683,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.022092547492557</v>
+        <v>1.022092547492583</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -1694,7 +1694,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.0219538827012</v>
+        <v>1.021953882701182</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.020167872195694</v>
+        <v>1.020167872195631</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.019603547908244</v>
+        <v>1.019603547908294</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -1727,7 +1727,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.022451904869895</v>
+        <v>1.022451904869841</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -1738,7 +1738,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.015195592935799</v>
+        <v>1.01519559293569</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.017693597139898</v>
+        <v>1.017693597140014</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.011017297430634</v>
+        <v>1.011017297430686</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -1771,7 +1771,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.017004668717913</v>
+        <v>1.017004668717786</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.019967585162359</v>
+        <v>1.019967585162387</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.022471600935866</v>
+        <v>1.022471600935822</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.024435563721005</v>
+        <v>1.024435563720839</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -1826,7 +1826,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.033710831779974</v>
+        <v>1.033710831779819</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -1837,7 +1837,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.034116507294376</v>
+        <v>1.034116507294416</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -1848,7 +1848,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.044781105506817</v>
+        <v>1.044781105506943</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.051475060425078</v>
+        <v>1.051475060425115</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -1870,7 +1870,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.054336394247738</v>
+        <v>1.054336394247672</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -1881,7 +1881,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.057139171285304</v>
+        <v>1.057139171285277</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.066865117533996</v>
+        <v>1.066865117533985</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -1903,7 +1903,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.070847589710693</v>
+        <v>1.070847589710809</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -1914,7 +1914,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.074367088700965</v>
+        <v>1.074367088700845</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.075542950399418</v>
+        <v>1.075542950399458</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -1936,7 +1936,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.079783850376114</v>
+        <v>1.079783850376079</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -1947,7 +1947,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.080293954187595</v>
+        <v>1.080293954187573</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -1958,7 +1958,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.075627640763209</v>
+        <v>1.075627640763467</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.080749521106861</v>
+        <v>1.080749521107101</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -1980,7 +1980,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.077112327153326</v>
+        <v>1.077112327153436</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -1991,7 +1991,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.074491592921015</v>
+        <v>1.074491592920982</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -2002,7 +2002,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.072051532895876</v>
+        <v>1.072051532895731</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -2013,7 +2013,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.072248935814635</v>
+        <v>1.072248935814719</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -2024,7 +2024,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.070687788898109</v>
+        <v>1.070687788898186</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -2035,7 +2035,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.070246429295686</v>
+        <v>1.070246429295767</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.06624632808257</v>
+        <v>1.066246328082606</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -2057,7 +2057,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.060741187128517</v>
+        <v>1.060741187128468</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.06249352488289</v>
+        <v>1.062493524882777</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -2079,7 +2079,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.063883347144704</v>
+        <v>1.063883347144886</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -2090,7 +2090,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.053767676937652</v>
+        <v>1.053767676937764</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.057403748709609</v>
+        <v>1.057403748709544</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -2112,7 +2112,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.051537722912907</v>
+        <v>1.05153772291308</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -2123,7 +2123,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.047006863075522</v>
+        <v>1.047006863075506</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.04836532231197</v>
+        <v>1.048365322312024</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -2145,7 +2145,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1.044492721915953</v>
+        <v>1.044492721916114</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -2156,7 +2156,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1.044808693334879</v>
+        <v>1.044808693334887</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -2167,7 +2167,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1.037014405415732</v>
+        <v>1.037014405415838</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -2178,7 +2178,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1.028817630724938</v>
+        <v>1.028817630725028</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -2189,7 +2189,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1.023962974369187</v>
+        <v>1.0239629743693</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1.015012300414058</v>
+        <v>1.015012300413925</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -2211,7 +2211,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1.003505157388877</v>
+        <v>1.003505157388884</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -2222,10 +2222,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1.002093129626762</v>
+        <v>1.00209312962674</v>
       </c>
       <c r="C168">
-        <v>0.9948975784673076</v>
+        <v>0.9948975784672682</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2236,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="C169">
-        <v>0.9824453172641</v>
+        <v>0.9824453172641779</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>0.9753541724424261</v>
+        <v>0.9753541724425003</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="C171">
-        <v>0.9653240701177813</v>
+        <v>0.9653240701177872</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="C172">
-        <v>0.9564571128506459</v>
+        <v>0.9564571128507094</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="C173">
-        <v>0.9511077438989842</v>
+        <v>0.9511077438988768</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="C174">
-        <v>0.942898573233637</v>
+        <v>0.9428985732335927</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>0.9354432878332279</v>
+        <v>0.9354432878334211</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="C176">
-        <v>0.9342729506728762</v>
+        <v>0.9342729506728555</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="C177">
-        <v>0.9334706055066304</v>
+        <v>0.9334706055066514</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="C178">
-        <v>0.9266665461011907</v>
+        <v>0.9266665461012319</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="C179">
-        <v>0.9372226915640328</v>
+        <v>0.9372226915640166</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="C180">
-        <v>0.9326367817711858</v>
+        <v>0.9326367817712191</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="C181">
-        <v>0.9374231526181337</v>
+        <v>0.9374231526180584</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>0.9474343831616818</v>
+        <v>0.9474343831616994</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <v>0.9505680810677372</v>
+        <v>0.9505680810676745</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>0.956053992051043</v>
+        <v>0.9560539920510688</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>0.9558912936908179</v>
+        <v>0.9558912936908029</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="C186">
-        <v>0.9649298153168341</v>
+        <v>0.9649298153168865</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="C187">
-        <v>0.9752857023448668</v>
+        <v>0.9752857023449784</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="C188">
-        <v>0.9793628465617812</v>
+        <v>0.979362846561727</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="C189">
-        <v>0.9840849597535934</v>
+        <v>0.9840849597535941</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2464,10 +2464,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.001078480974835</v>
+        <v>1.001078480974802</v>
       </c>
       <c r="C190">
-        <v>0.989755752510637</v>
+        <v>0.9897557525105222</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2475,10 +2475,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.002899560559767</v>
+        <v>1.00289956055977</v>
       </c>
       <c r="C191">
-        <v>0.9989844696258691</v>
+        <v>0.9989844696258902</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1.005268292047991</v>
+        <v>1.005268292048031</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1.009766360297053</v>
+        <v>1.009766360296995</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -2508,7 +2508,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1.009262608375554</v>
+        <v>1.009262608375678</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -2519,7 +2519,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1.010074309919853</v>
+        <v>1.010074309919895</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -2530,7 +2530,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1.008016232923832</v>
+        <v>1.008016232924123</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -2541,7 +2541,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.01033967092828</v>
+        <v>1.010339670928432</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -2552,7 +2552,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.012469987331311</v>
+        <v>1.012469987331675</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -2563,7 +2563,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.015152837985378</v>
+        <v>1.01515283798539</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -2574,7 +2574,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.012282294084099</v>
+        <v>1.012282294083939</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -2585,7 +2585,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.013150418522886</v>
+        <v>1.013150418522826</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -2596,7 +2596,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.013856547016375</v>
+        <v>1.013856547016343</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.011675895539815</v>
+        <v>1.011675895539829</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -2618,7 +2618,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.016304994175629</v>
+        <v>1.016304994175631</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -2629,7 +2629,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.017908490646986</v>
+        <v>1.017908490647052</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -2640,7 +2640,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1.019828728319453</v>
+        <v>1.019828728319415</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -2651,7 +2651,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1.013691675314702</v>
+        <v>1.013691675314516</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -2662,7 +2662,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1.015726327525397</v>
+        <v>1.01572632752532</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -2673,7 +2673,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.019230923362579</v>
+        <v>1.019230923362694</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -2684,7 +2684,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1.020294197140498</v>
+        <v>1.02029419714049</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -2695,7 +2695,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1.016600614190323</v>
+        <v>1.016600614190276</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -2706,7 +2706,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1.017785341997188</v>
+        <v>1.01778534199705</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -2717,7 +2717,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.025406010068661</v>
+        <v>1.025406010068581</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -2728,7 +2728,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1.021940840757902</v>
+        <v>1.021940840757847</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -2739,7 +2739,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1.021172133011776</v>
+        <v>1.021172133011784</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -2750,7 +2750,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1.024684950930115</v>
+        <v>1.024684950930239</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -2761,7 +2761,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1.023148932499951</v>
+        <v>1.023148932499879</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -2772,7 +2772,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1.018693534593006</v>
+        <v>1.018693534592939</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1.016633170452349</v>
+        <v>1.016633170452368</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -2794,7 +2794,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>1.018298844544857</v>
+        <v>1.018298844544807</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -2805,7 +2805,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>1.014537199218625</v>
+        <v>1.014537199218694</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -2816,7 +2816,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>1.015123283387668</v>
+        <v>1.015123283387676</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -2827,7 +2827,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>1.015611347913367</v>
+        <v>1.015611347913431</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -2838,7 +2838,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>1.015881920506979</v>
+        <v>1.015881920506986</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -2849,7 +2849,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>1.019987274000435</v>
+        <v>1.019987274000477</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -2860,7 +2860,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>1.02278763221266</v>
+        <v>1.022787632212701</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -2871,7 +2871,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>1.021192405466853</v>
+        <v>1.021192405467012</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -2882,7 +2882,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>1.033892971162781</v>
+        <v>1.033892971162821</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -2893,7 +2893,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>1.040018130897728</v>
+        <v>1.040018130897689</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -2904,7 +2904,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>1.045355629873423</v>
+        <v>1.045355629873563</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -2915,7 +2915,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>1.048486374349436</v>
+        <v>1.048486374349494</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -2926,7 +2926,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>1.056611257604852</v>
+        <v>1.056611257604817</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -2937,7 +2937,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>1.058517161590851</v>
+        <v>1.058517161590975</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>1.065892747504198</v>
+        <v>1.065892747504216</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>1.069280710209289</v>
+        <v>1.069280710209463</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -2970,7 +2970,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>1.071466656023666</v>
+        <v>1.07146665602382</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>1.079802858978916</v>
+        <v>1.079802858979052</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -2992,7 +2992,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>1.077870901736922</v>
+        <v>1.077870901736888</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -3003,7 +3003,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>1.074870081960507</v>
+        <v>1.074870081960479</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -3014,7 +3014,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>1.07917393139078</v>
+        <v>1.079173931390884</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>1.07719316916234</v>
+        <v>1.077193169162294</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -3036,7 +3036,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>1.076844278256451</v>
+        <v>1.076844278256405</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -3047,7 +3047,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>1.074488855448828</v>
+        <v>1.074488855448754</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -3058,7 +3058,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>1.07332679709888</v>
+        <v>1.073326797098948</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>1.068878236122724</v>
+        <v>1.068878236122915</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -3080,7 +3080,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>1.072703435527071</v>
+        <v>1.072703435526857</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -3091,7 +3091,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>1.068643020408069</v>
+        <v>1.068643020407918</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -3102,7 +3102,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>1.067784079879817</v>
+        <v>1.067784079879886</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -3113,7 +3113,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>1.065347001651154</v>
+        <v>1.065347001651074</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -3124,7 +3124,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>1.061087768875483</v>
+        <v>1.061087768875516</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -3135,7 +3135,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>1.058711209680207</v>
+        <v>1.058711209680171</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -3146,7 +3146,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>1.057861947708066</v>
+        <v>1.057861947708001</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -3157,7 +3157,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>1.054209536072578</v>
+        <v>1.054209536072576</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -3168,7 +3168,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>1.053631171073124</v>
+        <v>1.053631171073142</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -3179,7 +3179,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>1.049561286891663</v>
+        <v>1.049561286891738</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -3190,7 +3190,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>1.046388913311711</v>
+        <v>1.046388913311823</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -3201,7 +3201,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>1.048310057294947</v>
+        <v>1.048310057294915</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>1.043653820941931</v>
+        <v>1.043653820941967</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -3223,7 +3223,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>1.038034558383354</v>
+        <v>1.03803455838325</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -3234,7 +3234,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>1.024479858037036</v>
+        <v>1.024479858037263</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -3245,7 +3245,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>1.019903776909697</v>
+        <v>1.019903776909655</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -3256,7 +3256,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>1.011250927679187</v>
+        <v>1.011250927679021</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -3267,7 +3267,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>1.00432308363917</v>
+        <v>1.004323083639147</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -3278,10 +3278,10 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>1.001679939360734</v>
+        <v>1.001679939360758</v>
       </c>
       <c r="C264">
-        <v>0.9928125315280137</v>
+        <v>0.9928125315280579</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3292,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="C265">
-        <v>0.9815612298933155</v>
+        <v>0.9815612298936104</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="C266">
-        <v>0.9776672897341889</v>
+        <v>0.9776672897342894</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="C267">
-        <v>0.9682776272030296</v>
+        <v>0.9682776272029467</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="C268">
-        <v>0.9570677255169391</v>
+        <v>0.9570677255169306</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="C269">
-        <v>0.9540046949753991</v>
+        <v>0.9540046949753807</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>0.9404574215871775</v>
+        <v>0.940457421587252</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3358,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="C271">
-        <v>0.9350923187860999</v>
+        <v>0.9350923187859206</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>0.9349133310105581</v>
+        <v>0.9349133310104325</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="C273">
-        <v>0.9348535351419044</v>
+        <v>0.9348535351419717</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>0.9342757331094522</v>
+        <v>0.9342757331092191</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="C275">
-        <v>0.9391116466551561</v>
+        <v>0.9391116466549608</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3413,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="C276">
-        <v>0.9429448419264908</v>
+        <v>0.9429448419264305</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3424,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="C277">
-        <v>0.9397254287918876</v>
+        <v>0.9397254287921898</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="C278">
-        <v>0.9508227437458276</v>
+        <v>0.950822743745727</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3446,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="C279">
-        <v>0.9494478686288821</v>
+        <v>0.9494478686287239</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="C280">
-        <v>0.9558826298727826</v>
+        <v>0.9558826298727529</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="C281">
-        <v>0.9547486544890031</v>
+        <v>0.9547486544889676</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3479,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="C282">
-        <v>0.9616681278646484</v>
+        <v>0.9616681278645156</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>0.9705407136652023</v>
+        <v>0.9705407136651365</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3501,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="C284">
-        <v>0.9807421100995429</v>
+        <v>0.9807421100995311</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3509,10 +3509,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>1.000558215228154</v>
+        <v>1.000558215228216</v>
       </c>
       <c r="C285">
-        <v>0.9871807586285134</v>
+        <v>0.9871807586286553</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3520,10 +3520,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>1.002591547074847</v>
+        <v>1.002591547074834</v>
       </c>
       <c r="C286">
-        <v>0.9974005805384152</v>
+        <v>0.9974005805384702</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3531,10 +3531,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>1.00263207873395</v>
+        <v>1.002632078734006</v>
       </c>
       <c r="C287">
-        <v>0.9976089435708274</v>
+        <v>0.9976089435709119</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3542,7 +3542,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>1.003306785830857</v>
+        <v>1.003306785830894</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>1.006822499218926</v>
+        <v>1.006822499218964</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -3564,7 +3564,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>1.016231864110946</v>
+        <v>1.016231864110928</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -3575,7 +3575,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>1.011050076039985</v>
+        <v>1.011050076040108</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -3586,7 +3586,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>1.016962573830778</v>
+        <v>1.016962573830674</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -3597,7 +3597,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>1.008617414869018</v>
+        <v>1.008617414868963</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -3608,7 +3608,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>1.013287618521721</v>
+        <v>1.01328761852181</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -3619,7 +3619,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>1.009484176644444</v>
+        <v>1.00948417664444</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -3630,7 +3630,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>1.016956628039644</v>
+        <v>1.016956628039762</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -3641,7 +3641,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>1.009310858094303</v>
+        <v>1.009310858094375</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -3652,7 +3652,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>1.016163998579484</v>
+        <v>1.016163998579569</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -3663,7 +3663,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>1.016635073066004</v>
+        <v>1.016635073065862</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -3674,7 +3674,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>1.011048847087961</v>
+        <v>1.01104884708794</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -3685,7 +3685,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>1.016307054733935</v>
+        <v>1.016307054733902</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -3696,7 +3696,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>1.017207558742401</v>
+        <v>1.017207558742321</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -3707,7 +3707,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>1.015347505210679</v>
+        <v>1.015347505210718</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -3718,7 +3718,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>1.013270604608469</v>
+        <v>1.013270604608433</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -3729,7 +3729,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>1.017260871615894</v>
+        <v>1.01726087161586</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -3740,7 +3740,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>1.018109257829437</v>
+        <v>1.018109257829465</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -3751,7 +3751,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>1.020647619116988</v>
+        <v>1.020647619117128</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -3762,7 +3762,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>1.019782215367658</v>
+        <v>1.01978221536735</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -3773,7 +3773,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>1.018962241925087</v>
+        <v>1.018962241925044</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -3784,7 +3784,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>1.016712746031683</v>
+        <v>1.01671274603179</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -3795,7 +3795,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>1.025905906662787</v>
+        <v>1.025905906662798</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -3806,7 +3806,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>1.022399417787212</v>
+        <v>1.022399417787357</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -3817,7 +3817,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>1.021077248396321</v>
+        <v>1.021077248396131</v>
       </c>
       <c r="C313">
         <v>1</v>
@@ -3828,7 +3828,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>1.022420276704632</v>
+        <v>1.022420276704568</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -3839,7 +3839,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>1.021399685565569</v>
+        <v>1.021399685565709</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -3850,7 +3850,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>1.017422326363974</v>
+        <v>1.017422326363905</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>1.015197522101415</v>
+        <v>1.01519752210148</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>1.011563305911864</v>
+        <v>1.011563305911894</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -3883,7 +3883,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>1.01588070856165</v>
+        <v>1.015880708561732</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -3894,7 +3894,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>1.019349144105739</v>
+        <v>1.019349144105911</v>
       </c>
       <c r="C320">
         <v>1</v>
@@ -3905,7 +3905,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>1.020197765290767</v>
+        <v>1.020197765290664</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -3916,7 +3916,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>1.022528527087396</v>
+        <v>1.022528527087357</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>1.031116297388756</v>
+        <v>1.031116297388719</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -3938,7 +3938,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>1.028681997144711</v>
+        <v>1.028681997144574</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -3949,7 +3949,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>1.037003698879755</v>
+        <v>1.037003698879629</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>1.040457606840778</v>
+        <v>1.040457606840781</v>
       </c>
       <c r="C326">
         <v>1</v>
@@ -3971,7 +3971,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>1.051492574541195</v>
+        <v>1.051492574541358</v>
       </c>
       <c r="C327">
         <v>1</v>
@@ -3982,7 +3982,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>1.056928152415113</v>
+        <v>1.05692815241528</v>
       </c>
       <c r="C328">
         <v>1</v>
@@ -3993,7 +3993,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>1.062448577604646</v>
+        <v>1.062448577604726</v>
       </c>
       <c r="C329">
         <v>1</v>
@@ -4004,7 +4004,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>1.064447810382108</v>
+        <v>1.064447810382382</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -4015,7 +4015,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>1.069331465914475</v>
+        <v>1.069331465914545</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>1.076376338761479</v>
+        <v>1.076376338761442</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -4037,7 +4037,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>1.073640408136886</v>
+        <v>1.073640408136785</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -4048,7 +4048,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>1.077401645150159</v>
+        <v>1.07740164515023</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -4059,7 +4059,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>1.082225088993848</v>
+        <v>1.082225088993856</v>
       </c>
       <c r="C335">
         <v>1</v>
@@ -4070,7 +4070,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>1.077483253862644</v>
+        <v>1.077483253862699</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -4081,7 +4081,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>1.081202966701972</v>
+        <v>1.081202966702058</v>
       </c>
       <c r="C337">
         <v>1</v>
@@ -4092,7 +4092,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>1.077828583274304</v>
+        <v>1.077828583274125</v>
       </c>
       <c r="C338">
         <v>1</v>
@@ -4103,7 +4103,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>1.076750024156142</v>
+        <v>1.076750024156177</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -4114,7 +4114,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>1.077570018407776</v>
+        <v>1.077570018407844</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -4125,7 +4125,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>1.073729695534893</v>
+        <v>1.073729695534984</v>
       </c>
       <c r="C341">
         <v>1</v>
@@ -4136,7 +4136,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>1.069574945628509</v>
+        <v>1.069574945628386</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -4147,7 +4147,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>1.069047841027927</v>
+        <v>1.069047841028004</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -4158,7 +4158,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>1.067798621018055</v>
+        <v>1.067798621018352</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -4169,7 +4169,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>1.066275278932202</v>
+        <v>1.066275278932277</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -4180,7 +4180,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>1.060039401940543</v>
+        <v>1.060039401940468</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -4191,7 +4191,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>1.058337788577025</v>
+        <v>1.058337788577015</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -4202,7 +4202,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>1.053111316085484</v>
+        <v>1.053111316085375</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -4213,7 +4213,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>1.04991084069667</v>
+        <v>1.049910840696774</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -4224,7 +4224,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>1.052894665665525</v>
+        <v>1.052894665665551</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -4235,7 +4235,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>1.047418339349191</v>
+        <v>1.047418339349367</v>
       </c>
       <c r="C351">
         <v>1</v>
@@ -4246,7 +4246,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>1.047425754234537</v>
+        <v>1.047425754234655</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -4257,7 +4257,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>1.045271965284202</v>
+        <v>1.045271965283959</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -4268,7 +4268,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>1.037218733183644</v>
+        <v>1.037218733183492</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -4279,7 +4279,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>1.034380408380429</v>
+        <v>1.034380408380555</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -4290,7 +4290,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>1.026003501866223</v>
+        <v>1.026003501866446</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -4301,7 +4301,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>1.023896455466022</v>
+        <v>1.023896455466141</v>
       </c>
       <c r="C357">
         <v>1</v>
@@ -4312,7 +4312,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>1.016050626653178</v>
+        <v>1.01605062665305</v>
       </c>
       <c r="C358">
         <v>1</v>
@@ -4323,7 +4323,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>1.00660818086272</v>
+        <v>1.006608180862661</v>
       </c>
       <c r="C359">
         <v>1</v>
@@ -4334,10 +4334,10 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>1.002304284777968</v>
+        <v>1.002304284777926</v>
       </c>
       <c r="C360">
-        <v>0.9959742767718553</v>
+        <v>0.9959742767717396</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4348,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>0.9815735120092532</v>
+        <v>0.9815735120091271</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="C362">
-        <v>0.9697455173471686</v>
+        <v>0.9697455173474223</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4370,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>0.9660836646417356</v>
+        <v>0.9660836646416326</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4381,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="C364">
-        <v>0.9620933218773832</v>
+        <v>0.9620933218774128</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="C365">
-        <v>0.9548727961415245</v>
+        <v>0.954872796141586</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4403,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="C366">
-        <v>0.9407960791247828</v>
+        <v>0.9407960791246283</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4414,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="C367">
-        <v>0.9383493325251108</v>
+        <v>0.9383493325249969</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="C368">
-        <v>0.9346031499281638</v>
+        <v>0.9346031499281963</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4436,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="C369">
-        <v>0.9328585663702617</v>
+        <v>0.9328585663702746</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4447,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="C370">
-        <v>0.9347224990135231</v>
+        <v>0.9347224990134247</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="C371">
-        <v>0.9375905499345368</v>
+        <v>0.9375905499345815</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="C372">
-        <v>0.939189567229901</v>
+        <v>0.9391895672298686</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4480,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="C373">
-        <v>0.9379382758113208</v>
+        <v>0.9379382758113233</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="C374">
-        <v>0.9487895218647032</v>
+        <v>0.9487895218645914</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="C375">
-        <v>0.94813496038838</v>
+        <v>0.9481349603885266</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="C376">
-        <v>0.9592321306841941</v>
+        <v>0.9592321306841864</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4524,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="C377">
-        <v>0.9526712005054818</v>
+        <v>0.9526712005056844</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4535,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="C378">
-        <v>0.9700179765673898</v>
+        <v>0.9700179765673377</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4546,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="C379">
-        <v>0.9704371350169936</v>
+        <v>0.9704371350169865</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="C380">
-        <v>0.9826613815194107</v>
+        <v>0.9826613815194543</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4565,10 +4565,10 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>1.000535352306244</v>
+        <v>1.000535352306263</v>
       </c>
       <c r="C381">
-        <v>0.9870628743912055</v>
+        <v>0.9870628743913247</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4579,7 +4579,7 @@
         <v>1.001097299431079</v>
       </c>
       <c r="C382">
-        <v>0.9898507743142348</v>
+        <v>0.9898507743142643</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4587,10 +4587,10 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>1.002315171673577</v>
+        <v>1.002315171673569</v>
       </c>
       <c r="C383">
-        <v>0.9959850698533074</v>
+        <v>0.9959850698533445</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4598,7 +4598,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>1.006721602435161</v>
+        <v>1.006721602435151</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -4609,7 +4609,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>1.003944485139713</v>
+        <v>1.003944485139814</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -4620,7 +4620,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>1.00986309559436</v>
+        <v>1.009863095594346</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -4631,7 +4631,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>1.01515385575735</v>
+        <v>1.015153855757245</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -4642,7 +4642,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>1.014742106490049</v>
+        <v>1.014742106489903</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>1.014850808849122</v>
+        <v>1.01485080884915</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -4664,7 +4664,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>1.015933518426076</v>
+        <v>1.015933518425997</v>
       </c>
       <c r="C390">
         <v>1</v>
@@ -4675,7 +4675,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>1.01311038323804</v>
+        <v>1.013110383238193</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -4686,7 +4686,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>1.013483867831143</v>
+        <v>1.013483867831065</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -4697,7 +4697,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>1.016940006705479</v>
+        <v>1.01694000670557</v>
       </c>
       <c r="C393">
         <v>1</v>
@@ -4708,7 +4708,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>1.019321382165686</v>
+        <v>1.019321382165602</v>
       </c>
       <c r="C394">
         <v>1</v>
@@ -4719,7 +4719,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>1.019293808393233</v>
+        <v>1.01929380839317</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -4730,7 +4730,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>1.014024243494422</v>
+        <v>1.014024243494458</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -4741,7 +4741,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>1.013458276220949</v>
+        <v>1.013458276220946</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -4752,7 +4752,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>1.01503014914746</v>
+        <v>1.015030149147483</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -4763,7 +4763,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>1.017020851978832</v>
+        <v>1.017020851978808</v>
       </c>
       <c r="C399">
         <v>1</v>
@@ -4774,7 +4774,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>1.017386762980413</v>
+        <v>1.017386762980402</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -4785,7 +4785,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>1.019644632506027</v>
+        <v>1.019644632506096</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -4796,7 +4796,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>1.015895123955972</v>
+        <v>1.015895123955964</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -4807,7 +4807,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>1.019237870231785</v>
+        <v>1.019237870231873</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -4818,7 +4818,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>1.023563442619186</v>
+        <v>1.023563442619221</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -4829,7 +4829,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>1.018990954256098</v>
+        <v>1.018990954256149</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>1.015849350774926</v>
+        <v>1.015849350774888</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -4851,7 +4851,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>1.022378184047761</v>
+        <v>1.022378184047859</v>
       </c>
       <c r="C407">
         <v>1</v>
@@ -4862,7 +4862,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>1.021676150316573</v>
+        <v>1.021676150316726</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -4873,7 +4873,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>1.016096735874369</v>
+        <v>1.016096735874302</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -4884,7 +4884,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>1.025424991415284</v>
+        <v>1.025424991415211</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -4895,7 +4895,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>1.020961071501043</v>
+        <v>1.020961071500999</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>1.018308359706567</v>
+        <v>1.018308359706716</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -4917,7 +4917,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>1.018099226866549</v>
+        <v>1.018099226866706</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -4928,7 +4928,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>1.011662886676098</v>
+        <v>1.011662886676091</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -4939,7 +4939,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>1.018375237108489</v>
+        <v>1.018375237108411</v>
       </c>
       <c r="C415">
         <v>1</v>
@@ -4950,7 +4950,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>1.016837800549163</v>
+        <v>1.016837800549117</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -4961,7 +4961,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>1.017825983878031</v>
+        <v>1.017825983878131</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -4972,7 +4972,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>1.020904146709568</v>
+        <v>1.020904146709528</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -4983,7 +4983,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>1.021697626987067</v>
+        <v>1.0216976269873</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -4994,7 +4994,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>1.029166753683577</v>
+        <v>1.029166753683671</v>
       </c>
       <c r="C420">
         <v>1</v>
@@ -5005,7 +5005,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>1.03391133788827</v>
+        <v>1.03391133788829</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -5016,7 +5016,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>1.044566467024064</v>
+        <v>1.044566467024131</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -5027,7 +5027,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>1.049685817451535</v>
+        <v>1.049685817451453</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -5038,7 +5038,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>1.053417599282371</v>
+        <v>1.053417599282334</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -5049,7 +5049,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>1.057602025539721</v>
+        <v>1.057602025539687</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>1.064789695191492</v>
+        <v>1.064789695191635</v>
       </c>
       <c r="C426">
         <v>1</v>
@@ -5071,7 +5071,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>1.067953168002961</v>
+        <v>1.067953168003057</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -5082,7 +5082,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>1.07307262659288</v>
+        <v>1.073072626592875</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>1.07448770536811</v>
+        <v>1.074487705368164</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -5104,7 +5104,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>1.080207265093686</v>
+        <v>1.080207265093726</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -5115,7 +5115,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>1.079259524634857</v>
+        <v>1.079259524634871</v>
       </c>
       <c r="C431">
         <v>1</v>
@@ -5126,7 +5126,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>1.078450903167629</v>
+        <v>1.078450903167636</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -5137,7 +5137,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>1.077765002267905</v>
+        <v>1.077765002267879</v>
       </c>
       <c r="C433">
         <v>1</v>
@@ -5159,7 +5159,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>1.075983201470959</v>
+        <v>1.075983201470938</v>
       </c>
       <c r="C435">
         <v>1</v>
@@ -5170,7 +5170,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>1.070522883352621</v>
+        <v>1.070522883352734</v>
       </c>
       <c r="C436">
         <v>1</v>
@@ -5181,7 +5181,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>1.070730832858727</v>
+        <v>1.070730832858883</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -5192,7 +5192,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>1.07170394496118</v>
+        <v>1.071703944961135</v>
       </c>
       <c r="C438">
         <v>1</v>
@@ -5203,7 +5203,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>1.068369277332435</v>
+        <v>1.06836927733253</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -5214,7 +5214,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>1.064936623553366</v>
+        <v>1.064936623553421</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -5225,7 +5225,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>1.065149408643509</v>
+        <v>1.06514940864337</v>
       </c>
       <c r="C441">
         <v>1</v>
@@ -5236,7 +5236,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>1.062025948146858</v>
+        <v>1.062025948147022</v>
       </c>
       <c r="C442">
         <v>1</v>
@@ -5247,7 +5247,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>1.057852202203069</v>
+        <v>1.057852202203053</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -5258,7 +5258,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>1.056260338530148</v>
+        <v>1.056260338530224</v>
       </c>
       <c r="C444">
         <v>1</v>
@@ -5269,7 +5269,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>1.054888499917249</v>
+        <v>1.054888499917141</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -5280,7 +5280,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>1.05594533199152</v>
+        <v>1.055945331991578</v>
       </c>
       <c r="C446">
         <v>1</v>
@@ -5291,7 +5291,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>1.04986458632687</v>
+        <v>1.049864586326809</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -5302,7 +5302,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>1.044871972521726</v>
+        <v>1.044871972521599</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -5313,7 +5313,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>1.042725187875016</v>
+        <v>1.042725187875148</v>
       </c>
       <c r="C449">
         <v>1</v>
@@ -5324,7 +5324,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>1.042666525687598</v>
+        <v>1.042666525687761</v>
       </c>
       <c r="C450">
         <v>1</v>
@@ -5335,7 +5335,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>1.03933821243437</v>
+        <v>1.039338212434433</v>
       </c>
       <c r="C451">
         <v>1</v>
@@ -5346,7 +5346,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>1.023287494702285</v>
+        <v>1.023287494702394</v>
       </c>
       <c r="C452">
         <v>1</v>
@@ -5357,7 +5357,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>1.022680299899535</v>
+        <v>1.022680299899416</v>
       </c>
       <c r="C453">
         <v>1</v>
@@ -5368,7 +5368,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>1.01382620725147</v>
+        <v>1.013826207251544</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -5379,7 +5379,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>1.003692486288554</v>
+        <v>1.00369248628856</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -5390,10 +5390,10 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>1.002356917298027</v>
+        <v>1.002356917297988</v>
       </c>
       <c r="C456">
-        <v>0.9962442373740538</v>
+        <v>0.9962442373740562</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5404,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="C457">
-        <v>0.9833340299473743</v>
+        <v>0.9833340299473109</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5415,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="C458">
-        <v>0.9763933695149867</v>
+        <v>0.9763933695151491</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="C459">
-        <v>0.9678446607824376</v>
+        <v>0.967844660782447</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5437,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="C460">
-        <v>0.9603893259128894</v>
+        <v>0.9603893259128543</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5448,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="C461">
-        <v>0.9528220976569802</v>
+        <v>0.9528220976571793</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5459,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="C462">
-        <v>0.9432381106316343</v>
+        <v>0.9432381106316612</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="C463">
-        <v>0.9435830854284172</v>
+        <v>0.9435830854283939</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5481,7 +5481,7 @@
         <v>1</v>
       </c>
       <c r="C464">
-        <v>0.9378922021337244</v>
+        <v>0.9378922021336445</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5492,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="C465">
-        <v>0.9379669184767997</v>
+        <v>0.9379669184765311</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5503,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="C466">
-        <v>0.9312878922295038</v>
+        <v>0.9312878922295313</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5514,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="C467">
-        <v>0.9333850986313779</v>
+        <v>0.9333850986313542</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="C468">
-        <v>0.9372093859228121</v>
+        <v>0.9372093859229622</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5536,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>0.9404152987542098</v>
+        <v>0.9404152987543515</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="C470">
-        <v>0.9461306215970547</v>
+        <v>0.9461306215970094</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="C471">
-        <v>0.949460876989022</v>
+        <v>0.9494608769891222</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="C472">
-        <v>0.954187713733987</v>
+        <v>0.9541877137339916</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5580,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="C473">
-        <v>0.964843069278514</v>
+        <v>0.9648430692782631</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="C474">
-        <v>0.9649303551305812</v>
+        <v>0.9649303551306703</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5602,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="C475">
-        <v>0.9706598126346839</v>
+        <v>0.9706598126347611</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5613,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="C476">
-        <v>0.982549507861223</v>
+        <v>0.9825495078614099</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5621,10 +5621,10 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>1.00022938912605</v>
+        <v>1.000229389125988</v>
       </c>
       <c r="C477">
-        <v>0.9855563713640082</v>
+        <v>0.985556371363894</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5632,10 +5632,10 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>1.001860898887844</v>
+        <v>1.001860898887825</v>
       </c>
       <c r="C478">
-        <v>0.9936889859396844</v>
+        <v>0.9936889859396129</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5643,7 +5643,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>1.003188329852806</v>
+        <v>1.003188329852852</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -5665,7 +5665,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>1.006136690954573</v>
+        <v>1.006136690954557</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -5676,7 +5676,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>1.015235351010579</v>
+        <v>1.015235351010715</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -5687,7 +5687,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>1.014171760070214</v>
+        <v>1.01417176007027</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -5698,7 +5698,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>1.015215511458447</v>
+        <v>1.015215511458393</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -5709,7 +5709,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>1.016664368431231</v>
+        <v>1.016664368431363</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -5720,7 +5720,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>1.015042577727284</v>
+        <v>1.015042577727566</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -5731,7 +5731,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>1.012934705284186</v>
+        <v>1.012934705284137</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -5742,7 +5742,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>1.01223781498218</v>
+        <v>1.012237814982234</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -5753,7 +5753,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>1.015149694004348</v>
+        <v>1.015149694004539</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -5764,7 +5764,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>1.012393782011287</v>
+        <v>1.012393782011286</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>1.01664874662328</v>
+        <v>1.016648746623332</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -5786,7 +5786,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>1.012078606717955</v>
+        <v>1.012078606717991</v>
       </c>
       <c r="C492">
         <v>1</v>
@@ -5797,7 +5797,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>1.012119223294359</v>
+        <v>1.012119223294272</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -5808,7 +5808,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>1.014509860006665</v>
+        <v>1.014509860006622</v>
       </c>
       <c r="C494">
         <v>1</v>
@@ -5819,7 +5819,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>1.015381090978686</v>
+        <v>1.015381090978893</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -5830,7 +5830,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>1.019010008488857</v>
+        <v>1.019010008488964</v>
       </c>
       <c r="C496">
         <v>1</v>
@@ -5841,7 +5841,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>1.012814094929042</v>
+        <v>1.012814094929048</v>
       </c>
       <c r="C497">
         <v>1</v>
@@ -5852,7 +5852,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>1.015045016866585</v>
+        <v>1.015045016866515</v>
       </c>
       <c r="C498">
         <v>1</v>
@@ -5863,7 +5863,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>1.01742438394417</v>
+        <v>1.017424383944259</v>
       </c>
       <c r="C499">
         <v>1</v>
@@ -5874,7 +5874,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>1.01491724842653</v>
+        <v>1.014917248426679</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -5885,7 +5885,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>1.01899272982381</v>
+        <v>1.018992729823835</v>
       </c>
       <c r="C501">
         <v>1</v>
@@ -5896,7 +5896,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>1.018939374079093</v>
+        <v>1.018939374079207</v>
       </c>
       <c r="C502">
         <v>1</v>
@@ -5907,7 +5907,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>1.022567958150024</v>
+        <v>1.022567958149985</v>
       </c>
       <c r="C503">
         <v>1</v>
@@ -5918,7 +5918,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>1.020168121407337</v>
+        <v>1.020168121407379</v>
       </c>
       <c r="C504">
         <v>1</v>
@@ -5929,7 +5929,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>1.027750892631052</v>
+        <v>1.027750892631045</v>
       </c>
       <c r="C505">
         <v>1</v>
@@ -5940,7 +5940,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>1.024043229505955</v>
+        <v>1.02404322950595</v>
       </c>
       <c r="C506">
         <v>1</v>
@@ -5951,7 +5951,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>1.023994548766107</v>
+        <v>1.023994548766224</v>
       </c>
       <c r="C507">
         <v>1</v>
@@ -5962,7 +5962,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>1.023856601610731</v>
+        <v>1.023856601610704</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -5973,7 +5973,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>1.020754177861762</v>
+        <v>1.020754177861927</v>
       </c>
       <c r="C509">
         <v>1</v>
@@ -5984,7 +5984,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>1.027442858523226</v>
+        <v>1.02744285852317</v>
       </c>
       <c r="C510">
         <v>1</v>
@@ -5995,7 +5995,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>1.03073855024389</v>
+        <v>1.03073855024375</v>
       </c>
       <c r="C511">
         <v>1</v>
@@ -6006,7 +6006,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>1.025530063111922</v>
+        <v>1.025530063111925</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -6017,7 +6017,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>1.032094609542485</v>
+        <v>1.032094609542598</v>
       </c>
       <c r="C513">
         <v>1</v>
@@ -6028,7 +6028,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>1.03410508097421</v>
+        <v>1.034105080974121</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -6039,7 +6039,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>1.036868357365478</v>
+        <v>1.036868357365514</v>
       </c>
       <c r="C515">
         <v>1</v>
@@ -6050,7 +6050,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>1.032626352452184</v>
+        <v>1.032626352452157</v>
       </c>
       <c r="C516">
         <v>1</v>
@@ -6061,7 +6061,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>1.043494698563298</v>
+        <v>1.043494698563267</v>
       </c>
       <c r="C517">
         <v>1</v>
@@ -6072,7 +6072,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>1.042790679842189</v>
+        <v>1.042790679842167</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -6083,7 +6083,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>1.041583181385074</v>
+        <v>1.041583181385269</v>
       </c>
       <c r="C519">
         <v>1</v>
@@ -6094,7 +6094,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>1.047862982682897</v>
+        <v>1.047862982682933</v>
       </c>
       <c r="C520">
         <v>1</v>
@@ -6105,7 +6105,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>1.049711482277919</v>
+        <v>1.049711482278185</v>
       </c>
       <c r="C521">
         <v>1</v>
@@ -6116,7 +6116,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>1.049773290483071</v>
+        <v>1.049773290483081</v>
       </c>
       <c r="C522">
         <v>1</v>
@@ -6127,7 +6127,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>1.048926777975439</v>
+        <v>1.04892677797551</v>
       </c>
       <c r="C523">
         <v>1</v>
@@ -6138,7 +6138,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>1.049324348436556</v>
+        <v>1.049324348436539</v>
       </c>
       <c r="C524">
         <v>1</v>
@@ -6149,7 +6149,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>1.051594340586129</v>
+        <v>1.051594340586152</v>
       </c>
       <c r="C525">
         <v>1</v>
@@ -6160,7 +6160,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>1.054696187491794</v>
+        <v>1.054696187491781</v>
       </c>
       <c r="C526">
         <v>1</v>
@@ -6171,7 +6171,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>1.052321323991132</v>
+        <v>1.052321323991203</v>
       </c>
       <c r="C527">
         <v>1</v>
@@ -6182,7 +6182,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>1.056287881775106</v>
+        <v>1.056287881775118</v>
       </c>
       <c r="C528">
         <v>1</v>
@@ -6193,7 +6193,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>1.055981074328532</v>
+        <v>1.055981074328435</v>
       </c>
       <c r="C529">
         <v>1</v>
@@ -6204,7 +6204,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>1.056203321903713</v>
+        <v>1.056203321903789</v>
       </c>
       <c r="C530">
         <v>1</v>
@@ -6215,7 +6215,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>1.059017137913718</v>
+        <v>1.059017137913778</v>
       </c>
       <c r="C531">
         <v>1</v>
@@ -6226,7 +6226,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>1.054364530951162</v>
+        <v>1.054364530951331</v>
       </c>
       <c r="C532">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>1.057386239374401</v>
+        <v>1.057386239374531</v>
       </c>
       <c r="C533">
         <v>1</v>
@@ -6248,7 +6248,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>1.05261891466804</v>
+        <v>1.052618914668158</v>
       </c>
       <c r="C534">
         <v>1</v>
@@ -6259,7 +6259,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>1.053386479336125</v>
+        <v>1.05338647933612</v>
       </c>
       <c r="C535">
         <v>1</v>
@@ -6270,7 +6270,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>1.050017398829557</v>
+        <v>1.050017398829501</v>
       </c>
       <c r="C536">
         <v>1</v>
@@ -6281,7 +6281,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>1.050186483604032</v>
+        <v>1.050186483603945</v>
       </c>
       <c r="C537">
         <v>1</v>
@@ -6292,7 +6292,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>1.046005459809713</v>
+        <v>1.046005459809905</v>
       </c>
       <c r="C538">
         <v>1</v>
@@ -6303,7 +6303,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>1.04366798225236</v>
+        <v>1.043667982252477</v>
       </c>
       <c r="C539">
         <v>1</v>
@@ -6314,7 +6314,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>1.044305913706865</v>
+        <v>1.044305913707043</v>
       </c>
       <c r="C540">
         <v>1</v>
@@ -6325,7 +6325,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>1.038934464812019</v>
+        <v>1.038934464812072</v>
       </c>
       <c r="C541">
         <v>1</v>
@@ -6336,7 +6336,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>1.032617796005334</v>
+        <v>1.032617796005373</v>
       </c>
       <c r="C542">
         <v>1</v>
@@ -6347,7 +6347,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>1.03279933119425</v>
+        <v>1.032799331194078</v>
       </c>
       <c r="C543">
         <v>1</v>
@@ -6358,7 +6358,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>1.02769804543161</v>
+        <v>1.027698045431383</v>
       </c>
       <c r="C544">
         <v>1</v>
@@ -6369,7 +6369,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>1.026898476874713</v>
+        <v>1.026898476874756</v>
       </c>
       <c r="C545">
         <v>1</v>
@@ -6380,7 +6380,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>1.021346515860266</v>
+        <v>1.021346515860234</v>
       </c>
       <c r="C546">
         <v>1</v>
@@ -6391,7 +6391,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>1.015671223957495</v>
+        <v>1.015671223957431</v>
       </c>
       <c r="C547">
         <v>1</v>
@@ -6402,7 +6402,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>1.009624348387339</v>
+        <v>1.009624348387054</v>
       </c>
       <c r="C548">
         <v>1</v>
@@ -6413,7 +6413,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>1.003245799675689</v>
+        <v>1.003245799675662</v>
       </c>
       <c r="C549">
         <v>1</v>
@@ -6424,7 +6424,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>1.003115060574162</v>
+        <v>1.003115060574171</v>
       </c>
       <c r="C550">
         <v>1</v>
@@ -6435,10 +6435,10 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>1.000227270219696</v>
+        <v>1.000227270219707</v>
       </c>
       <c r="C551">
-        <v>0.9855852728361303</v>
+        <v>0.9855852728362173</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="C552">
-        <v>0.9762943275921587</v>
+        <v>0.9762943275921546</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6460,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="C553">
-        <v>0.9673361563407555</v>
+        <v>0.9673361563408249</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6471,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="C554">
-        <v>0.9553988984109979</v>
+        <v>0.9553988984110968</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="C555">
-        <v>0.9464234856446121</v>
+        <v>0.9464234856447586</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6493,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="C556">
-        <v>0.9448255753011745</v>
+        <v>0.9448255753010902</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6504,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="C557">
-        <v>0.9415744586183014</v>
+        <v>0.9415744586183307</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6515,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="C558">
-        <v>0.9288654337601363</v>
+        <v>0.9288654337602102</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6526,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="C559">
-        <v>0.9231054651444154</v>
+        <v>0.9231054651441249</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6537,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="C560">
-        <v>0.9257199316005555</v>
+        <v>0.9257199316005189</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6548,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="C561">
-        <v>0.9186329747587688</v>
+        <v>0.9186329747586872</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6559,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="C562">
-        <v>0.9131795805426867</v>
+        <v>0.9131795805427448</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6570,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="C563">
-        <v>0.9205736673835035</v>
+        <v>0.9205736673835422</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6581,7 +6581,7 @@
         <v>1</v>
       </c>
       <c r="C564">
-        <v>0.9276449343978298</v>
+        <v>0.9276449343979365</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6592,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="C565">
-        <v>0.9291532275730789</v>
+        <v>0.929153227573204</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="C566">
-        <v>0.9269425731309192</v>
+        <v>0.926942573130984</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6614,7 +6614,7 @@
         <v>1</v>
       </c>
       <c r="C567">
-        <v>0.9365567767960209</v>
+        <v>0.9365567767962335</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6625,7 +6625,7 @@
         <v>1</v>
       </c>
       <c r="C568">
-        <v>0.9453368745311901</v>
+        <v>0.9453368745311249</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6636,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="C569">
-        <v>0.9530570588310642</v>
+        <v>0.9530570588310036</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6647,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>0.9518359731115015</v>
+        <v>0.9518359731115779</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6658,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="C571">
-        <v>0.9638075105166682</v>
+        <v>0.9638075105165369</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6669,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="C572">
-        <v>0.9775531446598361</v>
+        <v>0.9775531446598817</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6680,7 +6680,7 @@
         <v>1</v>
       </c>
       <c r="C573">
-        <v>0.98070431668277</v>
+        <v>0.980704316682977</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6688,10 +6688,10 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>1.000739313458773</v>
+        <v>1.000739313458841</v>
       </c>
       <c r="C574">
-        <v>0.9880754537632102</v>
+        <v>0.9880754537634512</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6699,10 +6699,10 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>1.002280072340618</v>
+        <v>1.002280072340596</v>
       </c>
       <c r="C575">
-        <v>0.9958134672491319</v>
+        <v>0.9958134672490786</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6710,10 +6710,10 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>1.003092035439705</v>
+        <v>1.003092035439709</v>
       </c>
       <c r="C576">
-        <v>0.9999702789193985</v>
+        <v>0.999970278919487</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6721,7 +6721,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>1.003251566876033</v>
+        <v>1.003251566876006</v>
       </c>
       <c r="C577">
         <v>1</v>
@@ -6732,7 +6732,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>1.011805243714364</v>
+        <v>1.011805243714301</v>
       </c>
       <c r="C578">
         <v>1</v>
@@ -6743,7 +6743,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>1.007906359429193</v>
+        <v>1.007906359429171</v>
       </c>
       <c r="C579">
         <v>1</v>
@@ -6754,7 +6754,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>1.011632756436363</v>
+        <v>1.011632756436448</v>
       </c>
       <c r="C580">
         <v>1</v>
@@ -6765,7 +6765,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>1.01284838683268</v>
+        <v>1.012848386832723</v>
       </c>
       <c r="C581">
         <v>1</v>
@@ -6776,7 +6776,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>1.011702501298541</v>
+        <v>1.011702501298609</v>
       </c>
       <c r="C582">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>1.01501556256345</v>
+        <v>1.015015562563674</v>
       </c>
       <c r="C583">
         <v>1</v>
@@ -6798,7 +6798,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>1.010220875552002</v>
+        <v>1.010220875552067</v>
       </c>
       <c r="C584">
         <v>1</v>
@@ -6809,7 +6809,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>1.010684884301571</v>
+        <v>1.010684884301374</v>
       </c>
       <c r="C585">
         <v>1</v>
@@ -6820,7 +6820,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>1.013398543869613</v>
+        <v>1.013398543869734</v>
       </c>
       <c r="C586">
         <v>1</v>
@@ -6831,7 +6831,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>1.016463229193016</v>
+        <v>1.016463229192946</v>
       </c>
       <c r="C587">
         <v>1</v>
@@ -6842,7 +6842,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>1.018568130572825</v>
+        <v>1.018568130572857</v>
       </c>
       <c r="C588">
         <v>1</v>
@@ -6853,7 +6853,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>1.016152705317807</v>
+        <v>1.01615270531778</v>
       </c>
       <c r="C589">
         <v>1</v>
@@ -6864,7 +6864,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>1.015548574565921</v>
+        <v>1.015548574565907</v>
       </c>
       <c r="C590">
         <v>1</v>
@@ -6875,7 +6875,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>1.01349496505389</v>
+        <v>1.013494965053978</v>
       </c>
       <c r="C591">
         <v>1</v>
@@ -6886,7 +6886,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>1.014643350899342</v>
+        <v>1.014643350899145</v>
       </c>
       <c r="C592">
         <v>1</v>
@@ -6897,7 +6897,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>1.017346464640766</v>
+        <v>1.017346464640799</v>
       </c>
       <c r="C593">
         <v>1</v>
@@ -6908,7 +6908,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>1.01522776863548</v>
+        <v>1.015227768635556</v>
       </c>
       <c r="C594">
         <v>1</v>
@@ -6919,7 +6919,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>1.017115598979579</v>
+        <v>1.017115598979698</v>
       </c>
       <c r="C595">
         <v>1</v>
@@ -6930,7 +6930,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>1.018914605289796</v>
+        <v>1.018914605289737</v>
       </c>
       <c r="C596">
         <v>1</v>
@@ -6941,7 +6941,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>1.016026450904912</v>
+        <v>1.016026450904919</v>
       </c>
       <c r="C597">
         <v>1</v>
@@ -6952,7 +6952,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>1.018494996641857</v>
+        <v>1.018494996642018</v>
       </c>
       <c r="C598">
         <v>1</v>
@@ -6963,7 +6963,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>1.022162007704522</v>
+        <v>1.022162007704414</v>
       </c>
       <c r="C599">
         <v>1</v>
@@ -6985,7 +6985,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>1.028027179371682</v>
+        <v>1.028027179371611</v>
       </c>
       <c r="C601">
         <v>1</v>
@@ -6996,7 +6996,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>1.034700425636925</v>
+        <v>1.03470042563682</v>
       </c>
       <c r="C602">
         <v>1</v>
@@ -7007,7 +7007,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>1.032375110771996</v>
+        <v>1.032375110771952</v>
       </c>
       <c r="C603">
         <v>1</v>
@@ -7018,7 +7018,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>1.039441934922774</v>
+        <v>1.039441934922606</v>
       </c>
       <c r="C604">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>1.045862679230885</v>
+        <v>1.045862679231048</v>
       </c>
       <c r="C605">
         <v>1</v>
@@ -7040,7 +7040,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>1.04153960537173</v>
+        <v>1.041539605371675</v>
       </c>
       <c r="C606">
         <v>1</v>
@@ -7051,7 +7051,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>1.043239003062566</v>
+        <v>1.043239003062577</v>
       </c>
       <c r="C607">
         <v>1</v>
@@ -7062,7 +7062,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>1.047632042516491</v>
+        <v>1.047632042516356</v>
       </c>
       <c r="C608">
         <v>1</v>
@@ -7073,7 +7073,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>1.053556431027239</v>
+        <v>1.053556431027273</v>
       </c>
       <c r="C609">
         <v>1</v>
@@ -7084,7 +7084,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>1.059528395172145</v>
+        <v>1.059528395172487</v>
       </c>
       <c r="C610">
         <v>1</v>
@@ -7095,7 +7095,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>1.054492683440027</v>
+        <v>1.054492683439951</v>
       </c>
       <c r="C611">
         <v>1</v>
@@ -7106,7 +7106,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>1.054473654363322</v>
+        <v>1.054473654363257</v>
       </c>
       <c r="C612">
         <v>1</v>
@@ -7117,7 +7117,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>1.055775011882519</v>
+        <v>1.055775011882625</v>
       </c>
       <c r="C613">
         <v>1</v>
@@ -7128,7 +7128,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>1.053736171803521</v>
+        <v>1.053736171803567</v>
       </c>
       <c r="C614">
         <v>1</v>
@@ -7139,7 +7139,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>1.055033594540383</v>
+        <v>1.05503359454043</v>
       </c>
       <c r="C615">
         <v>1</v>
@@ -7150,7 +7150,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>1.052363531591564</v>
+        <v>1.052363531591762</v>
       </c>
       <c r="C616">
         <v>1</v>
@@ -7161,7 +7161,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>1.048503585700162</v>
+        <v>1.048503585700321</v>
       </c>
       <c r="C617">
         <v>1</v>
@@ -7172,7 +7172,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>1.051328003398277</v>
+        <v>1.051328003398351</v>
       </c>
       <c r="C618">
         <v>1</v>
@@ -7183,7 +7183,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>1.042522300866765</v>
+        <v>1.042522300867049</v>
       </c>
       <c r="C619">
         <v>1</v>
@@ -7194,7 +7194,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>1.04435249819163</v>
+        <v>1.044352498191599</v>
       </c>
       <c r="C620">
         <v>1</v>
@@ -7205,7 +7205,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>1.034799589021093</v>
+        <v>1.034799589020996</v>
       </c>
       <c r="C621">
         <v>1</v>
@@ -7216,7 +7216,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>1.039066155006485</v>
+        <v>1.039066155006565</v>
       </c>
       <c r="C622">
         <v>1</v>
@@ -7227,7 +7227,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>1.034298435349155</v>
+        <v>1.034298435349169</v>
       </c>
       <c r="C623">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>1.034641133753834</v>
+        <v>1.034641133753765</v>
       </c>
       <c r="C624">
         <v>1</v>
@@ -7249,7 +7249,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>1.031173431701202</v>
+        <v>1.031173431701208</v>
       </c>
       <c r="C625">
         <v>1</v>
@@ -7260,7 +7260,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>1.02142202859691</v>
+        <v>1.021422028596749</v>
       </c>
       <c r="C626">
         <v>1</v>
@@ -7271,7 +7271,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>1.023156360856752</v>
+        <v>1.023156360856616</v>
       </c>
       <c r="C627">
         <v>1</v>
@@ -7282,7 +7282,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>1.023592463724741</v>
+        <v>1.023592463724837</v>
       </c>
       <c r="C628">
         <v>1</v>
@@ -7293,7 +7293,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>1.020598085695737</v>
+        <v>1.020598085695676</v>
       </c>
       <c r="C629">
         <v>1</v>
@@ -7304,7 +7304,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>1.025220795023481</v>
+        <v>1.025220795023514</v>
       </c>
       <c r="C630">
         <v>1</v>
@@ -7315,7 +7315,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>1.029264831798021</v>
+        <v>1.029264831797908</v>
       </c>
       <c r="C631">
         <v>1</v>
@@ -7326,7 +7326,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>1.030589513794316</v>
+        <v>1.030589513794292</v>
       </c>
       <c r="C632">
         <v>1</v>
@@ -7337,7 +7337,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>1.025992680839288</v>
+        <v>1.025992680839313</v>
       </c>
       <c r="C633">
         <v>1</v>
@@ -7348,7 +7348,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>1.032653315852151</v>
+        <v>1.032653315851943</v>
       </c>
       <c r="C634">
         <v>1</v>
@@ -7359,7 +7359,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>1.032211675754071</v>
+        <v>1.032211675753926</v>
       </c>
       <c r="C635">
         <v>1</v>
@@ -7370,7 +7370,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>1.032695250821544</v>
+        <v>1.032695250821626</v>
       </c>
       <c r="C636">
         <v>1</v>
@@ -7381,7 +7381,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>1.039541328607787</v>
+        <v>1.039541328607835</v>
       </c>
       <c r="C637">
         <v>1</v>
@@ -7392,7 +7392,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>1.036699151409821</v>
+        <v>1.036699151409762</v>
       </c>
       <c r="C638">
         <v>1</v>
@@ -7403,7 +7403,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>1.038934116114505</v>
+        <v>1.038934116114402</v>
       </c>
       <c r="C639">
         <v>1</v>
@@ -7414,7 +7414,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>1.035167878573328</v>
+        <v>1.035167878573335</v>
       </c>
       <c r="C640">
         <v>1</v>
@@ -7425,7 +7425,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>1.031275648311926</v>
+        <v>1.031275648311861</v>
       </c>
       <c r="C641">
         <v>1</v>
@@ -7436,7 +7436,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>1.033879445115956</v>
+        <v>1.033879445115973</v>
       </c>
       <c r="C642">
         <v>1</v>
@@ -7447,7 +7447,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>1.020768055045226</v>
+        <v>1.020768055045296</v>
       </c>
       <c r="C643">
         <v>1</v>
@@ -7458,7 +7458,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>1.027098572224382</v>
+        <v>1.027098572224267</v>
       </c>
       <c r="C644">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>1.014938419399509</v>
+        <v>1.014938419399649</v>
       </c>
       <c r="C645">
         <v>1</v>
@@ -7480,7 +7480,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>1.015977105173803</v>
+        <v>1.015977105173938</v>
       </c>
       <c r="C646">
         <v>1</v>
@@ -7491,7 +7491,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>1.007894549657248</v>
+        <v>1.007894549657081</v>
       </c>
       <c r="C647">
         <v>1</v>
@@ -7502,7 +7502,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>1.004253761088657</v>
+        <v>1.004253761088682</v>
       </c>
       <c r="C648">
         <v>1</v>
@@ -7513,7 +7513,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>1.003605185319941</v>
+        <v>1.003605185319904</v>
       </c>
       <c r="C649">
         <v>1</v>
@@ -7524,10 +7524,10 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>1.002611235090742</v>
+        <v>1.002611235090778</v>
       </c>
       <c r="C650">
-        <v>0.9975312479153219</v>
+        <v>0.9975312479154111</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7538,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="C651">
-        <v>0.9827565166060878</v>
+        <v>0.9827565166060618</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7549,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="C652">
-        <v>0.9730440910378899</v>
+        <v>0.9730440910378344</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7560,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="C653">
-        <v>0.9655332473787429</v>
+        <v>0.965533247378645</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7571,7 +7571,7 @@
         <v>1</v>
       </c>
       <c r="C654">
-        <v>0.95944297100122</v>
+        <v>0.9594429710011876</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7582,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="C655">
-        <v>0.9588911509496695</v>
+        <v>0.9588911509496468</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7593,7 +7593,7 @@
         <v>1</v>
       </c>
       <c r="C656">
-        <v>0.9532007028415319</v>
+        <v>0.9532007028415097</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>0.94924806056321</v>
+        <v>0.949248060563229</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7615,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="C658">
-        <v>0.9435761392442513</v>
+        <v>0.9435761392442206</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7626,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="C659">
-        <v>0.9469534420942551</v>
+        <v>0.9469534420942901</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7637,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>0.9456699723135377</v>
+        <v>0.9456699723133967</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7648,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="C661">
-        <v>0.9498526030163352</v>
+        <v>0.9498526030163338</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7659,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="C662">
-        <v>0.949496178538709</v>
+        <v>0.9494961785386169</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7670,7 +7670,7 @@
         <v>1</v>
       </c>
       <c r="C663">
-        <v>0.9539581915875432</v>
+        <v>0.9539581915877042</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7681,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="C664">
-        <v>0.961660872850357</v>
+        <v>0.9616608728503475</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7692,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="C665">
-        <v>0.9662756152403922</v>
+        <v>0.9662756152405226</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7703,7 +7703,7 @@
         <v>1</v>
       </c>
       <c r="C666">
-        <v>0.9683327984133613</v>
+        <v>0.9683327984132281</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7714,7 +7714,7 @@
         <v>1</v>
       </c>
       <c r="C667">
-        <v>0.9793654965992142</v>
+        <v>0.9793654965993466</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="C668">
-        <v>0.9803414838483004</v>
+        <v>0.9803414838482862</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7736,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="C669">
-        <v>0.9836303875605398</v>
+        <v>0.9836303875604883</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7744,10 +7744,10 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>1.00143586790256</v>
+        <v>1.001435867902509</v>
       </c>
       <c r="C670">
-        <v>0.991549473989835</v>
+        <v>0.9915494739898204</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7755,7 +7755,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>1.003229389933489</v>
+        <v>1.003229389933458</v>
       </c>
       <c r="C671">
         <v>1</v>
@@ -7766,7 +7766,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>1.003826510687558</v>
+        <v>1.003826510687601</v>
       </c>
       <c r="C672">
         <v>1</v>
@@ -7777,7 +7777,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>1.007730419358254</v>
+        <v>1.007730419358253</v>
       </c>
       <c r="C673">
         <v>1</v>

--- a/exercises/dennis/exercise_4/Task_2_subgrid_results/res_bus/vm_pu.xlsx
+++ b/exercises/dennis/exercise_4/Task_2_subgrid_results/res_bus/vm_pu.xlsx
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.0122049358175</v>
+        <v>1.01220493581757</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -407,7 +407,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.010991028104066</v>
+        <v>1.010991028104071</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.012817933872271</v>
+        <v>1.012817933872616</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.009330950458639</v>
+        <v>1.009330950458691</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.008780383476148</v>
+        <v>1.008780383476123</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.013141014921764</v>
+        <v>1.01314101492196</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.011897402884138</v>
+        <v>1.011897402884145</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.012211990396141</v>
+        <v>1.012211990396345</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.017212088202623</v>
+        <v>1.017212088202588</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -495,7 +495,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.016729011296645</v>
+        <v>1.016729011296688</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.013348165127987</v>
+        <v>1.01334816512788</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.019037182410958</v>
+        <v>1.01903718241107</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.015006048369</v>
+        <v>1.015006048368996</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.018620320446552</v>
+        <v>1.018620320446431</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -550,7 +550,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02159886667425</v>
+        <v>1.021598866674295</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -561,7 +561,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.018316218282225</v>
+        <v>1.018316218282195</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.019091851774294</v>
+        <v>1.019091851774316</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -583,7 +583,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.017004883922914</v>
+        <v>1.017004883923406</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.013953755125338</v>
+        <v>1.013953755125314</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -605,7 +605,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.019646276849906</v>
+        <v>1.019646276849727</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -616,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.018776200033937</v>
+        <v>1.018776200033881</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -627,7 +627,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.022629388485408</v>
+        <v>1.022629388485177</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.021519297683823</v>
+        <v>1.021519297683832</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.01836753553849</v>
+        <v>1.018367535538524</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -660,7 +660,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.018147694045238</v>
+        <v>1.018147694045272</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -671,7 +671,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.020022853307873</v>
+        <v>1.020022853308</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.01903837753577</v>
+        <v>1.019038377535814</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.013212218489877</v>
+        <v>1.013212218489905</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -704,7 +704,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.00839818842851</v>
+        <v>1.008398188428577</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -715,7 +715,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.018725745229591</v>
+        <v>1.018725745229612</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.021745200865134</v>
+        <v>1.021745200865096</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.023220195330621</v>
+        <v>1.023220195330517</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.022393436108594</v>
+        <v>1.022393436108714</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -759,7 +759,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.0264607824217</v>
+        <v>1.026460782421659</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.032939482653447</v>
+        <v>1.032939482653591</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.038994047578713</v>
+        <v>1.038994047578699</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -792,7 +792,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.040130555590729</v>
+        <v>1.040130555590816</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.047246820051258</v>
+        <v>1.047246820051289</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -814,7 +814,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.051292425709301</v>
+        <v>1.051292425709447</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -825,7 +825,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.057025050830381</v>
+        <v>1.057025050830344</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.063005090558873</v>
+        <v>1.063005090558858</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.067592522173788</v>
+        <v>1.067592522173622</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -858,7 +858,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.077586647151336</v>
+        <v>1.077586647151365</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -869,7 +869,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.073571689173417</v>
+        <v>1.073571689173263</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.078792988534963</v>
+        <v>1.078792988535137</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.076334275497073</v>
+        <v>1.07633427549724</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.083011456854357</v>
+        <v>1.083011456854313</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.076466325457839</v>
+        <v>1.07646632545783</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.07858006859408</v>
+        <v>1.078580068594186</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.078623599408625</v>
+        <v>1.078623599408556</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.069765492433273</v>
+        <v>1.069765492433408</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -957,7 +957,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.071438440377865</v>
+        <v>1.071438440377919</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.069172772304603</v>
+        <v>1.069172772304662</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.066708970977027</v>
+        <v>1.066708970977</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -990,7 +990,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.064118613956589</v>
+        <v>1.064118613956534</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.065800397065187</v>
+        <v>1.06580039706502</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.060222919287676</v>
+        <v>1.060222919287704</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1023,7 +1023,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.060092010831206</v>
+        <v>1.060092010831196</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.057169786677015</v>
+        <v>1.057169786677246</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1045,7 +1045,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.05320593516178</v>
+        <v>1.053205935161675</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1056,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.053374760542728</v>
+        <v>1.053374760542729</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.047772533055541</v>
+        <v>1.047772533055592</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.051584853179198</v>
+        <v>1.051584853179161</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.046084040500333</v>
+        <v>1.04608404050019</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1100,7 +1100,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.039608141645397</v>
+        <v>1.03960814164563</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.033083765348667</v>
+        <v>1.033083765348559</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1122,7 +1122,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.026940770048088</v>
+        <v>1.026940770048144</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.022399023159077</v>
+        <v>1.022399023158802</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.009623613845548</v>
+        <v>1.009623613845518</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1155,7 +1155,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.005899308647787</v>
+        <v>1.005899308647892</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.001990772670419</v>
+        <v>1.001990772670338</v>
       </c>
       <c r="C72">
-        <v>0.9943844949944904</v>
+        <v>0.994384494994365</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>0.9813364946958794</v>
+        <v>0.9813364946958548</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>0.9788768730554213</v>
+        <v>0.9788768730554931</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>0.9688385109088605</v>
+        <v>0.9688385109087383</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>0.9550138305916747</v>
+        <v>0.95501383059153</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>0.9467144240678511</v>
+        <v>0.9467144240677767</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>0.9353263633253717</v>
+        <v>0.935326363325491</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>0.940447622938426</v>
+        <v>0.9404476229383912</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>0.9355822309398867</v>
+        <v>0.9355822309398194</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>0.9335787849520302</v>
+        <v>0.9335787849518837</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>0.9255940090909729</v>
+        <v>0.9255940090910373</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>0.9317207567735688</v>
+        <v>0.9317207567736566</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>0.9400027063785803</v>
+        <v>0.9400027063785131</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>0.9397816838767805</v>
+        <v>0.9397816838768154</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>0.9506341245889285</v>
+        <v>0.9506341245891888</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>0.9458753484059176</v>
+        <v>0.9458753484057837</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>0.9503186390682549</v>
+        <v>0.9503186390682442</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>0.9643452389114558</v>
+        <v>0.9643452389113638</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>0.9618358284328556</v>
+        <v>0.961835828432805</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>0.9717623610495744</v>
+        <v>0.9717623610496816</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>0.9823228149074847</v>
+        <v>0.9823228149075509</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.001057670228259</v>
+        <v>1.001057670228228</v>
       </c>
       <c r="C93">
-        <v>0.9896575903867809</v>
+        <v>0.9896575903866017</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.001967037515313</v>
+        <v>1.001967037515331</v>
       </c>
       <c r="C94">
-        <v>0.9942217712959055</v>
+        <v>0.9942217712960028</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,7 +1419,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.003323747748136</v>
+        <v>1.003323747748117</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -1430,7 +1430,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.006531268350239</v>
+        <v>1.006531268350156</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.011420260201815</v>
+        <v>1.011420260201854</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -1452,7 +1452,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.007709380935252</v>
+        <v>1.00770938093525</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.011672733208125</v>
+        <v>1.011672733207925</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -1474,7 +1474,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.011807529875688</v>
+        <v>1.01180752987564</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.015946569858647</v>
+        <v>1.015946569858555</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.011562962172712</v>
+        <v>1.011562962172559</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1507,7 +1507,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.015324499092855</v>
+        <v>1.015324499092649</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.013693714381432</v>
+        <v>1.013693714381359</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.016993503756724</v>
+        <v>1.01699350375686</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -1540,7 +1540,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.014355917805191</v>
+        <v>1.014355917805266</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -1551,7 +1551,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.015456483366703</v>
+        <v>1.015456483366863</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.017579442194382</v>
+        <v>1.017579442194414</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.019656045369398</v>
+        <v>1.019656045369544</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -1584,7 +1584,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.017152654691799</v>
+        <v>1.017152654691855</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -1595,7 +1595,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.01879755094688</v>
+        <v>1.018797550946722</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -1606,7 +1606,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.016920929223667</v>
+        <v>1.01692092922378</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -1617,7 +1617,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.013777390568162</v>
+        <v>1.013777390568068</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.01319186100879</v>
+        <v>1.013191861008679</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.014671048873891</v>
+        <v>1.014671048873874</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.019802778666534</v>
+        <v>1.0198027786665</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.017346521444982</v>
+        <v>1.017346521445013</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.02105241366201</v>
+        <v>1.021052413662045</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -1683,7 +1683,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.022092547492557</v>
+        <v>1.022092547492436</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -1694,7 +1694,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.0219538827012</v>
+        <v>1.021953882701003</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.020167872195694</v>
+        <v>1.020167872195487</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.019603547908244</v>
+        <v>1.019603547908414</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -1727,7 +1727,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.022451904869895</v>
+        <v>1.022451904869641</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -1738,7 +1738,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.015195592935799</v>
+        <v>1.015195592935731</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.017693597139898</v>
+        <v>1.017693597139892</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.011017297430634</v>
+        <v>1.011017297430653</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -1771,7 +1771,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.017004668717913</v>
+        <v>1.017004668717783</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1.017524811866503</v>
+        <v>1.017524811866453</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.019967585162359</v>
+        <v>1.019967585162466</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.022471600935866</v>
+        <v>1.022471600935805</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.024435563721005</v>
+        <v>1.024435563720901</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -1826,7 +1826,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.033710831779974</v>
+        <v>1.033710831779983</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -1837,7 +1837,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.034116507294376</v>
+        <v>1.034116507294519</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -1848,7 +1848,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.044781105506817</v>
+        <v>1.044781105506872</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.051475060425078</v>
+        <v>1.051475060425165</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -1870,7 +1870,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.054336394247738</v>
+        <v>1.054336394247843</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -1881,7 +1881,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.057139171285304</v>
+        <v>1.057139171285368</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.066865117533996</v>
+        <v>1.066865117534103</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -1903,7 +1903,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.070847589710693</v>
+        <v>1.070847589710852</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -1914,7 +1914,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.074367088700965</v>
+        <v>1.07436708870078</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.075542950399418</v>
+        <v>1.075542950399362</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -1936,7 +1936,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.079783850376114</v>
+        <v>1.079783850376032</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -1947,7 +1947,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.080293954187595</v>
+        <v>1.080293954187614</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -1958,7 +1958,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.075627640763209</v>
+        <v>1.075627640763554</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.080749521106861</v>
+        <v>1.080749521107036</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -1980,7 +1980,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.077112327153326</v>
+        <v>1.077112327153191</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -1991,7 +1991,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.074491592921015</v>
+        <v>1.074491592920947</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -2002,7 +2002,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.072051532895876</v>
+        <v>1.072051532895824</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -2013,7 +2013,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.072248935814635</v>
+        <v>1.072248935814699</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -2024,7 +2024,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.070687788898109</v>
+        <v>1.070687788898252</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -2035,7 +2035,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.070246429295686</v>
+        <v>1.070246429295678</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.06624632808257</v>
+        <v>1.066246328082742</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -2057,7 +2057,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.060741187128517</v>
+        <v>1.060741187128466</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.06249352488289</v>
+        <v>1.062493524882858</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -2079,7 +2079,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.063883347144704</v>
+        <v>1.063883347144933</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -2090,7 +2090,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.053767676937652</v>
+        <v>1.053767676937624</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.057403748709609</v>
+        <v>1.057403748709523</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -2112,7 +2112,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.051537722912907</v>
+        <v>1.051537722912981</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -2123,7 +2123,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.047006863075522</v>
+        <v>1.047006863075587</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.04836532231197</v>
+        <v>1.048365322311829</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -2145,7 +2145,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1.044492721915953</v>
+        <v>1.044492721916103</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -2156,7 +2156,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1.044808693334879</v>
+        <v>1.044808693334897</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -2167,7 +2167,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1.037014405415732</v>
+        <v>1.037014405415804</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -2178,7 +2178,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1.028817630724938</v>
+        <v>1.0288176307251</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -2189,7 +2189,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1.023962974369187</v>
+        <v>1.023962974369095</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1.015012300414058</v>
+        <v>1.015012300414061</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -2211,7 +2211,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1.003505157388877</v>
+        <v>1.003505157388897</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -2222,10 +2222,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1.002093129626762</v>
+        <v>1.002093129626773</v>
       </c>
       <c r="C168">
-        <v>0.9948975784673076</v>
+        <v>0.994897578467367</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2236,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="C169">
-        <v>0.9824453172641</v>
+        <v>0.9824453172640655</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>0.9753541724424261</v>
+        <v>0.9753541724424448</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="C171">
-        <v>0.9653240701177813</v>
+        <v>0.9653240701175615</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="C172">
-        <v>0.9564571128506459</v>
+        <v>0.9564571128506528</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="C173">
-        <v>0.9511077438989842</v>
+        <v>0.9511077438989297</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="C174">
-        <v>0.942898573233637</v>
+        <v>0.9428985732334343</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>0.9354432878332279</v>
+        <v>0.9354432878334362</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="C176">
-        <v>0.9342729506728762</v>
+        <v>0.9342729506730051</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="C177">
-        <v>0.9334706055066304</v>
+        <v>0.9334706055066276</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="C178">
-        <v>0.9266665461011907</v>
+        <v>0.9266665461012931</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="C179">
-        <v>0.9372226915640328</v>
+        <v>0.9372226915640125</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="C180">
-        <v>0.9326367817711858</v>
+        <v>0.9326367817712385</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="C181">
-        <v>0.9374231526181337</v>
+        <v>0.9374231526181007</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>0.9474343831616818</v>
+        <v>0.9474343831616397</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <v>0.9505680810677372</v>
+        <v>0.9505680810678361</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>0.956053992051043</v>
+        <v>0.9560539920510505</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>0.9558912936908179</v>
+        <v>0.9558912936907102</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="C186">
-        <v>0.9649298153168341</v>
+        <v>0.9649298153168139</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="C187">
-        <v>0.9752857023448668</v>
+        <v>0.9752857023449846</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="C188">
-        <v>0.9793628465617812</v>
+        <v>0.9793628465617742</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="C189">
-        <v>0.9840849597535934</v>
+        <v>0.9840849597536306</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2464,10 +2464,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.001078480974835</v>
+        <v>1.001078480974868</v>
       </c>
       <c r="C190">
-        <v>0.989755752510637</v>
+        <v>0.9897557525107213</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2475,10 +2475,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.002899560559767</v>
+        <v>1.002899560559835</v>
       </c>
       <c r="C191">
-        <v>0.9989844696258691</v>
+        <v>0.9989844696260933</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1.005268292047991</v>
+        <v>1.005268292048029</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1.009766360297053</v>
+        <v>1.009766360297087</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -2508,7 +2508,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1.009262608375554</v>
+        <v>1.00926260837569</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -2519,7 +2519,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1.010074309919853</v>
+        <v>1.01007430992006</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -2530,7 +2530,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1.008016232923832</v>
+        <v>1.008016232924049</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -2541,7 +2541,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.01033967092828</v>
+        <v>1.010339670928259</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -2552,7 +2552,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.012469987331311</v>
+        <v>1.012469987331524</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -2563,7 +2563,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.015152837985378</v>
+        <v>1.015152837985341</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -2574,7 +2574,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.012282294084099</v>
+        <v>1.012282294084262</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -2585,7 +2585,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.013150418522886</v>
+        <v>1.013150418522722</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -2596,7 +2596,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.013856547016375</v>
+        <v>1.013856547016406</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.011675895539815</v>
+        <v>1.011675895539721</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -2618,7 +2618,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.016304994175629</v>
+        <v>1.016304994175815</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -2629,7 +2629,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.017908490646986</v>
+        <v>1.017908490647053</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -2640,7 +2640,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1.019828728319453</v>
+        <v>1.019828728319421</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -2651,7 +2651,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1.013691675314702</v>
+        <v>1.013691675314714</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -2662,7 +2662,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1.015726327525397</v>
+        <v>1.015726327525122</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -2673,7 +2673,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.019230923362579</v>
+        <v>1.019230923362627</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -2684,7 +2684,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1.020294197140498</v>
+        <v>1.020294197140566</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -2695,7 +2695,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1.016600614190323</v>
+        <v>1.016600614190487</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -2706,7 +2706,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1.017785341997188</v>
+        <v>1.017785341996998</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -2717,7 +2717,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.025406010068661</v>
+        <v>1.025406010068641</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -2728,7 +2728,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1.021940840757902</v>
+        <v>1.021940840757706</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -2739,7 +2739,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1.021172133011776</v>
+        <v>1.021172133011798</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -2750,7 +2750,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1.024684950930115</v>
+        <v>1.024684950930107</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -2761,7 +2761,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1.023148932499951</v>
+        <v>1.023148932499934</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -2772,7 +2772,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1.018693534593006</v>
+        <v>1.018693534593161</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1.016633170452349</v>
+        <v>1.016633170452363</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -2794,7 +2794,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>1.018298844544857</v>
+        <v>1.018298844544691</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -2805,7 +2805,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>1.014537199218625</v>
+        <v>1.014537199218726</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -2816,7 +2816,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>1.015123283387668</v>
+        <v>1.015123283387723</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -2827,7 +2827,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>1.015611347913367</v>
+        <v>1.015611347913428</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -2838,7 +2838,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>1.015881920506979</v>
+        <v>1.015881920506994</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -2849,7 +2849,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>1.019987274000435</v>
+        <v>1.019987274000524</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -2860,7 +2860,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>1.02278763221266</v>
+        <v>1.022787632212703</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -2871,7 +2871,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>1.021192405466853</v>
+        <v>1.021192405466906</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -2882,7 +2882,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>1.033892971162781</v>
+        <v>1.033892971162651</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -2893,7 +2893,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>1.040018130897728</v>
+        <v>1.040018130897725</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -2904,7 +2904,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>1.045355629873423</v>
+        <v>1.045355629873589</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -2915,7 +2915,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>1.048486374349436</v>
+        <v>1.048486374349616</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -2926,7 +2926,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>1.056611257604852</v>
+        <v>1.05661125760471</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -2937,7 +2937,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>1.058517161590851</v>
+        <v>1.058517161590951</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>1.065892747504198</v>
+        <v>1.065892747504194</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>1.069280710209289</v>
+        <v>1.069280710209403</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -2970,7 +2970,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>1.071466656023666</v>
+        <v>1.071466656023682</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>1.079802858978916</v>
+        <v>1.079802858979014</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -2992,7 +2992,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>1.077870901736922</v>
+        <v>1.077870901736852</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -3003,7 +3003,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>1.074870081960507</v>
+        <v>1.074870081960587</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -3014,7 +3014,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>1.07917393139078</v>
+        <v>1.079173931390792</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>1.07719316916234</v>
+        <v>1.077193169162228</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -3036,7 +3036,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>1.076844278256451</v>
+        <v>1.07684427825645</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -3047,7 +3047,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>1.074488855448828</v>
+        <v>1.074488855448861</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -3058,7 +3058,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>1.07332679709888</v>
+        <v>1.073326797098793</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>1.068878236122724</v>
+        <v>1.068878236122866</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -3080,7 +3080,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>1.072703435527071</v>
+        <v>1.072703435527027</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -3091,7 +3091,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>1.068643020408069</v>
+        <v>1.068643020407915</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -3102,7 +3102,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>1.067784079879817</v>
+        <v>1.067784079879828</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -3113,7 +3113,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>1.065347001651154</v>
+        <v>1.06534700165108</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -3124,7 +3124,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>1.061087768875483</v>
+        <v>1.06108776887542</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -3135,7 +3135,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>1.058711209680207</v>
+        <v>1.058711209680191</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -3146,7 +3146,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>1.057861947708066</v>
+        <v>1.057861947707929</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -3157,7 +3157,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>1.054209536072578</v>
+        <v>1.054209536072527</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -3168,7 +3168,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>1.053631171073124</v>
+        <v>1.053631171072979</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -3179,7 +3179,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>1.049561286891663</v>
+        <v>1.049561286891493</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -3190,7 +3190,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>1.046388913311711</v>
+        <v>1.046388913311731</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -3201,7 +3201,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>1.048310057294947</v>
+        <v>1.048310057294946</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>1.043653820941931</v>
+        <v>1.043653820941853</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -3223,7 +3223,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>1.038034558383354</v>
+        <v>1.038034558383084</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -3234,7 +3234,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>1.024479858037036</v>
+        <v>1.024479858037258</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -3245,7 +3245,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>1.019903776909697</v>
+        <v>1.019903776909757</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -3256,7 +3256,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>1.011250927679187</v>
+        <v>1.011250927679059</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -3267,7 +3267,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>1.00432308363917</v>
+        <v>1.00432308363922</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -3278,10 +3278,10 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>1.001679939360734</v>
+        <v>1.001679939360708</v>
       </c>
       <c r="C264">
-        <v>0.9928125315280137</v>
+        <v>0.9928125315279043</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3292,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="C265">
-        <v>0.9815612298933155</v>
+        <v>0.9815612298935045</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="C266">
-        <v>0.9776672897341889</v>
+        <v>0.977667289734287</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="C267">
-        <v>0.9682776272030296</v>
+        <v>0.9682776272029091</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="C268">
-        <v>0.9570677255169391</v>
+        <v>0.9570677255168312</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="C269">
-        <v>0.9540046949753991</v>
+        <v>0.9540046949753305</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>0.9404574215871775</v>
+        <v>0.9404574215872207</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3358,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="C271">
-        <v>0.9350923187860999</v>
+        <v>0.9350923187860456</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>0.9349133310105581</v>
+        <v>0.9349133310103612</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="C273">
-        <v>0.9348535351419044</v>
+        <v>0.9348535351418209</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>0.9342757331094522</v>
+        <v>0.9342757331093319</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="C275">
-        <v>0.9391116466551561</v>
+        <v>0.9391116466550885</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3413,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="C276">
-        <v>0.9429448419264908</v>
+        <v>0.9429448419265114</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3424,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="C277">
-        <v>0.9397254287918876</v>
+        <v>0.9397254287920833</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="C278">
-        <v>0.9508227437458276</v>
+        <v>0.9508227437457216</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3446,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="C279">
-        <v>0.9494478686288821</v>
+        <v>0.9494478686288488</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="C280">
-        <v>0.9558826298727826</v>
+        <v>0.9558826298726948</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="C281">
-        <v>0.9547486544890031</v>
+        <v>0.9547486544890629</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3479,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="C282">
-        <v>0.9616681278646484</v>
+        <v>0.9616681278644039</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>0.9705407136652023</v>
+        <v>0.9705407136650875</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3501,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="C284">
-        <v>0.9807421100995429</v>
+        <v>0.9807421100997058</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3509,10 +3509,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>1.000558215228154</v>
+        <v>1.000558215228133</v>
       </c>
       <c r="C285">
-        <v>0.9871807586285134</v>
+        <v>0.9871807586284368</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3520,10 +3520,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>1.002591547074847</v>
+        <v>1.002591547074839</v>
       </c>
       <c r="C286">
-        <v>0.9974005805384152</v>
+        <v>0.9974005805384255</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3531,10 +3531,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>1.00263207873395</v>
+        <v>1.002632078733993</v>
       </c>
       <c r="C287">
-        <v>0.9976089435708274</v>
+        <v>0.9976089435709498</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3542,7 +3542,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>1.003306785830857</v>
+        <v>1.003306785830855</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>1.006822499218926</v>
+        <v>1.006822499218903</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -3564,7 +3564,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>1.016231864110946</v>
+        <v>1.016231864110874</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -3575,7 +3575,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>1.011050076039985</v>
+        <v>1.011050076040201</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -3586,7 +3586,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>1.016962573830778</v>
+        <v>1.016962573830704</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -3597,7 +3597,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>1.008617414869018</v>
+        <v>1.008617414868741</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -3608,7 +3608,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>1.013287618521721</v>
+        <v>1.013287618521885</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -3619,7 +3619,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>1.009484176644444</v>
+        <v>1.009484176644256</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -3630,7 +3630,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>1.016956628039644</v>
+        <v>1.016956628039471</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -3641,7 +3641,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>1.009310858094303</v>
+        <v>1.00931085809425</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -3652,7 +3652,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>1.016163998579484</v>
+        <v>1.016163998579479</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -3663,7 +3663,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>1.016635073066004</v>
+        <v>1.016635073065978</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -3674,7 +3674,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>1.011048847087961</v>
+        <v>1.011048847087992</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -3685,7 +3685,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>1.016307054733935</v>
+        <v>1.016307054733904</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -3696,7 +3696,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>1.017207558742401</v>
+        <v>1.017207558742414</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -3707,7 +3707,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>1.015347505210679</v>
+        <v>1.015347505210691</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -3718,7 +3718,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>1.013270604608469</v>
+        <v>1.013270604608409</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -3729,7 +3729,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>1.017260871615894</v>
+        <v>1.017260871615749</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -3740,7 +3740,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>1.018109257829437</v>
+        <v>1.018109257829479</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -3751,7 +3751,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>1.020647619116988</v>
+        <v>1.020647619117113</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -3762,7 +3762,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>1.019782215367658</v>
+        <v>1.019782215367365</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -3773,7 +3773,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>1.018962241925087</v>
+        <v>1.01896224192492</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -3784,7 +3784,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>1.016712746031683</v>
+        <v>1.016712746031664</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -3795,7 +3795,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>1.025905906662787</v>
+        <v>1.025905906662975</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -3806,7 +3806,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>1.022399417787212</v>
+        <v>1.022399417787436</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -3817,7 +3817,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>1.021077248396321</v>
+        <v>1.021077248396232</v>
       </c>
       <c r="C313">
         <v>1</v>
@@ -3828,7 +3828,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>1.022420276704632</v>
+        <v>1.022420276704457</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -3839,7 +3839,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>1.021399685565569</v>
+        <v>1.021399685565642</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -3850,7 +3850,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>1.017422326363974</v>
+        <v>1.017422326363908</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>1.015197522101415</v>
+        <v>1.015197522101432</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>1.011563305911864</v>
+        <v>1.011563305911978</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -3883,7 +3883,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>1.01588070856165</v>
+        <v>1.015880708561599</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -3894,7 +3894,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>1.019349144105739</v>
+        <v>1.01934914410591</v>
       </c>
       <c r="C320">
         <v>1</v>
@@ -3905,7 +3905,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>1.020197765290767</v>
+        <v>1.02019776529064</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -3916,7 +3916,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>1.022528527087396</v>
+        <v>1.022528527087267</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>1.031116297388756</v>
+        <v>1.031116297388752</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -3938,7 +3938,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>1.028681997144711</v>
+        <v>1.028681997144583</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -3949,7 +3949,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>1.037003698879755</v>
+        <v>1.037003698879706</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>1.040457606840778</v>
+        <v>1.040457606840649</v>
       </c>
       <c r="C326">
         <v>1</v>
@@ -3971,7 +3971,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>1.051492574541195</v>
+        <v>1.051492574541111</v>
       </c>
       <c r="C327">
         <v>1</v>
@@ -3982,7 +3982,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>1.056928152415113</v>
+        <v>1.056928152414992</v>
       </c>
       <c r="C328">
         <v>1</v>
@@ -3993,7 +3993,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>1.062448577604646</v>
+        <v>1.062448577604826</v>
       </c>
       <c r="C329">
         <v>1</v>
@@ -4004,7 +4004,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>1.064447810382108</v>
+        <v>1.064447810382402</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -4015,7 +4015,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>1.069331465914475</v>
+        <v>1.069331465914701</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>1.076376338761479</v>
+        <v>1.076376338761503</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -4048,7 +4048,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>1.077401645150159</v>
+        <v>1.077401645150168</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -4059,7 +4059,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>1.082225088993848</v>
+        <v>1.082225088993745</v>
       </c>
       <c r="C335">
         <v>1</v>
@@ -4070,7 +4070,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>1.077483253862644</v>
+        <v>1.077483253862598</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -4092,7 +4092,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>1.077828583274304</v>
+        <v>1.077828583274172</v>
       </c>
       <c r="C338">
         <v>1</v>
@@ -4103,7 +4103,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>1.076750024156142</v>
+        <v>1.076750024156326</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -4114,7 +4114,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>1.077570018407776</v>
+        <v>1.077570018407892</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -4125,7 +4125,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>1.073729695534893</v>
+        <v>1.073729695535077</v>
       </c>
       <c r="C341">
         <v>1</v>
@@ -4136,7 +4136,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>1.069574945628509</v>
+        <v>1.069574945628365</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -4147,7 +4147,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>1.069047841027927</v>
+        <v>1.069047841027925</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -4158,7 +4158,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>1.067798621018055</v>
+        <v>1.067798621018329</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -4169,7 +4169,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>1.066275278932202</v>
+        <v>1.066275278932377</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -4180,7 +4180,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>1.060039401940543</v>
+        <v>1.060039401940532</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -4191,7 +4191,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>1.058337788577025</v>
+        <v>1.058337788577246</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -4202,7 +4202,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>1.053111316085484</v>
+        <v>1.05311131608548</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -4213,7 +4213,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>1.04991084069667</v>
+        <v>1.049910840696692</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -4224,7 +4224,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>1.052894665665525</v>
+        <v>1.052894665665523</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -4235,7 +4235,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>1.047418339349191</v>
+        <v>1.047418339349383</v>
       </c>
       <c r="C351">
         <v>1</v>
@@ -4246,7 +4246,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>1.047425754234537</v>
+        <v>1.047425754234776</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -4257,7 +4257,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>1.045271965284202</v>
+        <v>1.045271965284051</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -4268,7 +4268,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>1.037218733183644</v>
+        <v>1.037218733183501</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -4279,7 +4279,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>1.034380408380429</v>
+        <v>1.0343804083806</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -4290,7 +4290,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>1.026003501866223</v>
+        <v>1.026003501866447</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -4301,7 +4301,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>1.023896455466022</v>
+        <v>1.023896455466</v>
       </c>
       <c r="C357">
         <v>1</v>
@@ -4312,7 +4312,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>1.016050626653178</v>
+        <v>1.016050626653053</v>
       </c>
       <c r="C358">
         <v>1</v>
@@ -4323,7 +4323,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>1.00660818086272</v>
+        <v>1.00660818086284</v>
       </c>
       <c r="C359">
         <v>1</v>
@@ -4334,10 +4334,10 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>1.002304284777968</v>
+        <v>1.002304284777934</v>
       </c>
       <c r="C360">
-        <v>0.9959742767718553</v>
+        <v>0.9959742767717197</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4348,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>0.9815735120092532</v>
+        <v>0.9815735120091083</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="C362">
-        <v>0.9697455173471686</v>
+        <v>0.9697455173473861</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4370,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>0.9660836646417356</v>
+        <v>0.9660836646416029</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4381,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="C364">
-        <v>0.9620933218773832</v>
+        <v>0.9620933218773081</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="C365">
-        <v>0.9548727961415245</v>
+        <v>0.9548727961416019</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4403,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="C366">
-        <v>0.9407960791247828</v>
+        <v>0.9407960791247372</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4414,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="C367">
-        <v>0.9383493325251108</v>
+        <v>0.9383493325251141</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="C368">
-        <v>0.9346031499281638</v>
+        <v>0.9346031499283041</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4436,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="C369">
-        <v>0.9328585663702617</v>
+        <v>0.932858566370246</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4447,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="C370">
-        <v>0.9347224990135231</v>
+        <v>0.9347224990134416</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="C371">
-        <v>0.9375905499345368</v>
+        <v>0.9375905499345478</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="C372">
-        <v>0.939189567229901</v>
+        <v>0.9391895672298407</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4480,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="C373">
-        <v>0.9379382758113208</v>
+        <v>0.9379382758114828</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="C374">
-        <v>0.9487895218647032</v>
+        <v>0.9487895218647024</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="C375">
-        <v>0.94813496038838</v>
+        <v>0.9481349603884548</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="C376">
-        <v>0.9592321306841941</v>
+        <v>0.9592321306841758</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4524,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="C377">
-        <v>0.9526712005054818</v>
+        <v>0.9526712005055709</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4535,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="C378">
-        <v>0.9700179765673898</v>
+        <v>0.9700179765673381</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4546,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="C379">
-        <v>0.9704371350169936</v>
+        <v>0.9704371350170135</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="C380">
-        <v>0.9826613815194107</v>
+        <v>0.9826613815196068</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4565,10 +4565,10 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>1.000535352306244</v>
+        <v>1.000535352306283</v>
       </c>
       <c r="C381">
-        <v>0.9870628743912055</v>
+        <v>0.9870628743914079</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4576,10 +4576,10 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>1.001097299431079</v>
+        <v>1.001097299431043</v>
       </c>
       <c r="C382">
-        <v>0.9898507743142348</v>
+        <v>0.9898507743142198</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4587,10 +4587,10 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>1.002315171673577</v>
+        <v>1.002315171673522</v>
       </c>
       <c r="C383">
-        <v>0.9959850698533074</v>
+        <v>0.9959850698531417</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4598,7 +4598,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>1.006721602435161</v>
+        <v>1.006721602435235</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -4609,7 +4609,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>1.003944485139713</v>
+        <v>1.003944485139774</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -4620,7 +4620,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>1.00986309559436</v>
+        <v>1.009863095594311</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -4631,7 +4631,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>1.01515385575735</v>
+        <v>1.015153855757289</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -4642,7 +4642,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>1.014742106490049</v>
+        <v>1.014742106489924</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>1.014850808849122</v>
+        <v>1.014850808849197</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -4664,7 +4664,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>1.015933518426076</v>
+        <v>1.015933518425997</v>
       </c>
       <c r="C390">
         <v>1</v>
@@ -4675,7 +4675,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>1.01311038323804</v>
+        <v>1.013110383238104</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -4686,7 +4686,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>1.013483867831143</v>
+        <v>1.013483867831165</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -4697,7 +4697,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>1.016940006705479</v>
+        <v>1.016940006705529</v>
       </c>
       <c r="C393">
         <v>1</v>
@@ -4708,7 +4708,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>1.019321382165686</v>
+        <v>1.019321382165638</v>
       </c>
       <c r="C394">
         <v>1</v>
@@ -4719,7 +4719,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>1.019293808393233</v>
+        <v>1.019293808393171</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -4730,7 +4730,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>1.014024243494422</v>
+        <v>1.014024243494493</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -4741,7 +4741,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>1.013458276220949</v>
+        <v>1.013458276220874</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -4752,7 +4752,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>1.01503014914746</v>
+        <v>1.015030149147379</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -4763,7 +4763,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>1.017020851978832</v>
+        <v>1.017020851978769</v>
       </c>
       <c r="C399">
         <v>1</v>
@@ -4774,7 +4774,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>1.017386762980413</v>
+        <v>1.017386762980108</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -4785,7 +4785,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>1.019644632506027</v>
+        <v>1.019644632506148</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -4796,7 +4796,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>1.015895123955972</v>
+        <v>1.015895123956002</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -4807,7 +4807,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>1.019237870231785</v>
+        <v>1.019237870231752</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -4818,7 +4818,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>1.023563442619186</v>
+        <v>1.023563442619108</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -4829,7 +4829,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>1.018990954256098</v>
+        <v>1.018990954256088</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>1.015849350774926</v>
+        <v>1.015849350774915</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -4851,7 +4851,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>1.022378184047761</v>
+        <v>1.022378184047937</v>
       </c>
       <c r="C407">
         <v>1</v>
@@ -4862,7 +4862,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>1.021676150316573</v>
+        <v>1.021676150316653</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -4873,7 +4873,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>1.016096735874369</v>
+        <v>1.01609673587454</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -4884,7 +4884,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>1.025424991415284</v>
+        <v>1.025424991415078</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -4895,7 +4895,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>1.020961071501043</v>
+        <v>1.020961071501099</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>1.018308359706567</v>
+        <v>1.018308359706667</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -4917,7 +4917,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>1.018099226866549</v>
+        <v>1.018099226866704</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -4928,7 +4928,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>1.011662886676098</v>
+        <v>1.011662886676067</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -4939,7 +4939,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>1.018375237108489</v>
+        <v>1.01837523710848</v>
       </c>
       <c r="C415">
         <v>1</v>
@@ -4950,7 +4950,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>1.016837800549163</v>
+        <v>1.016837800549217</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -4961,7 +4961,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>1.017825983878031</v>
+        <v>1.017825983878266</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -4972,7 +4972,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>1.020904146709568</v>
+        <v>1.020904146709553</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -4983,7 +4983,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>1.021697626987067</v>
+        <v>1.021697626987075</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -4994,7 +4994,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>1.029166753683577</v>
+        <v>1.02916675368355</v>
       </c>
       <c r="C420">
         <v>1</v>
@@ -5005,7 +5005,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>1.03391133788827</v>
+        <v>1.033911337888372</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -5016,7 +5016,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>1.044566467024064</v>
+        <v>1.044566467024123</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -5027,7 +5027,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>1.049685817451535</v>
+        <v>1.049685817451391</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -5038,7 +5038,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>1.053417599282371</v>
+        <v>1.053417599282293</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -5049,7 +5049,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>1.057602025539721</v>
+        <v>1.057602025539659</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>1.064789695191492</v>
+        <v>1.06478969519138</v>
       </c>
       <c r="C426">
         <v>1</v>
@@ -5071,7 +5071,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>1.067953168002961</v>
+        <v>1.06795316800295</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -5082,7 +5082,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>1.07307262659288</v>
+        <v>1.073072626592923</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>1.07448770536811</v>
+        <v>1.074487705367957</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -5104,7 +5104,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>1.080207265093686</v>
+        <v>1.080207265093642</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -5115,7 +5115,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>1.079259524634857</v>
+        <v>1.079259524634907</v>
       </c>
       <c r="C431">
         <v>1</v>
@@ -5126,7 +5126,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>1.078450903167629</v>
+        <v>1.078450903167698</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -5137,7 +5137,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>1.077765002267905</v>
+        <v>1.077765002267852</v>
       </c>
       <c r="C433">
         <v>1</v>
@@ -5148,7 +5148,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>1.081135084964131</v>
+        <v>1.081135084964115</v>
       </c>
       <c r="C434">
         <v>1</v>
@@ -5159,7 +5159,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>1.075983201470959</v>
+        <v>1.075983201471045</v>
       </c>
       <c r="C435">
         <v>1</v>
@@ -5170,7 +5170,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>1.070522883352621</v>
+        <v>1.070522883352651</v>
       </c>
       <c r="C436">
         <v>1</v>
@@ -5181,7 +5181,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>1.070730832858727</v>
+        <v>1.070730832858903</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -5192,7 +5192,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>1.07170394496118</v>
+        <v>1.071703944961027</v>
       </c>
       <c r="C438">
         <v>1</v>
@@ -5203,7 +5203,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>1.068369277332435</v>
+        <v>1.068369277332304</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -5214,7 +5214,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>1.064936623553366</v>
+        <v>1.064936623553232</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -5225,7 +5225,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>1.065149408643509</v>
+        <v>1.065149408643365</v>
       </c>
       <c r="C441">
         <v>1</v>
@@ -5236,7 +5236,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>1.062025948146858</v>
+        <v>1.062025948146896</v>
       </c>
       <c r="C442">
         <v>1</v>
@@ -5247,7 +5247,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>1.057852202203069</v>
+        <v>1.05785220220313</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -5258,7 +5258,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>1.056260338530148</v>
+        <v>1.056260338530182</v>
       </c>
       <c r="C444">
         <v>1</v>
@@ -5269,7 +5269,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>1.054888499917249</v>
+        <v>1.05488849991715</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -5280,7 +5280,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>1.05594533199152</v>
+        <v>1.055945331991313</v>
       </c>
       <c r="C446">
         <v>1</v>
@@ -5291,7 +5291,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>1.04986458632687</v>
+        <v>1.049864586326844</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -5302,7 +5302,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>1.044871972521726</v>
+        <v>1.044871972521782</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -5313,7 +5313,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>1.042725187875016</v>
+        <v>1.042725187875105</v>
       </c>
       <c r="C449">
         <v>1</v>
@@ -5324,7 +5324,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>1.042666525687598</v>
+        <v>1.042666525687831</v>
       </c>
       <c r="C450">
         <v>1</v>
@@ -5335,7 +5335,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>1.03933821243437</v>
+        <v>1.03933821243428</v>
       </c>
       <c r="C451">
         <v>1</v>
@@ -5346,7 +5346,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>1.023287494702285</v>
+        <v>1.023287494702299</v>
       </c>
       <c r="C452">
         <v>1</v>
@@ -5357,7 +5357,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>1.022680299899535</v>
+        <v>1.022680299899635</v>
       </c>
       <c r="C453">
         <v>1</v>
@@ -5368,7 +5368,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>1.01382620725147</v>
+        <v>1.013826207251751</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -5379,7 +5379,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>1.003692486288554</v>
+        <v>1.003692486288522</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -5390,10 +5390,10 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>1.002356917298027</v>
+        <v>1.002356917297954</v>
       </c>
       <c r="C456">
-        <v>0.9962442373740538</v>
+        <v>0.9962442373739312</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5404,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="C457">
-        <v>0.9833340299473743</v>
+        <v>0.9833340299472459</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5415,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="C458">
-        <v>0.9763933695149867</v>
+        <v>0.9763933695150118</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="C459">
-        <v>0.9678446607824376</v>
+        <v>0.9678446607825528</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5437,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="C460">
-        <v>0.9603893259128894</v>
+        <v>0.9603893259128772</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5448,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="C461">
-        <v>0.9528220976569802</v>
+        <v>0.9528220976570416</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5459,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="C462">
-        <v>0.9432381106316343</v>
+        <v>0.9432381106317163</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="C463">
-        <v>0.9435830854284172</v>
+        <v>0.9435830854283561</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5481,7 +5481,7 @@
         <v>1</v>
       </c>
       <c r="C464">
-        <v>0.9378922021337244</v>
+        <v>0.9378922021336715</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5492,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="C465">
-        <v>0.9379669184767997</v>
+        <v>0.9379669184766473</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5503,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="C466">
-        <v>0.9312878922295038</v>
+        <v>0.9312878922295232</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5514,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="C467">
-        <v>0.9333850986313779</v>
+        <v>0.933385098631251</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="C468">
-        <v>0.9372093859228121</v>
+        <v>0.9372093859229967</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5536,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>0.9404152987542098</v>
+        <v>0.94041529875421</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="C470">
-        <v>0.9461306215970547</v>
+        <v>0.9461306215971201</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="C471">
-        <v>0.949460876989022</v>
+        <v>0.9494608769890182</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="C472">
-        <v>0.954187713733987</v>
+        <v>0.9541877137340378</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5580,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="C473">
-        <v>0.964843069278514</v>
+        <v>0.9648430692783698</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="C474">
-        <v>0.9649303551305812</v>
+        <v>0.964930355130549</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5602,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="C475">
-        <v>0.9706598126346839</v>
+        <v>0.970659812634623</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5613,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="C476">
-        <v>0.982549507861223</v>
+        <v>0.9825495078613087</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5621,10 +5621,10 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>1.00022938912605</v>
+        <v>1.000229389126012</v>
       </c>
       <c r="C477">
-        <v>0.9855563713640082</v>
+        <v>0.985556371363949</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5632,10 +5632,10 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>1.001860898887844</v>
+        <v>1.001860898887835</v>
       </c>
       <c r="C478">
-        <v>0.9936889859396844</v>
+        <v>0.9936889859396292</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5643,7 +5643,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>1.003188329852806</v>
+        <v>1.003188329852815</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -5654,7 +5654,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>1.003573488857898</v>
+        <v>1.003573488857928</v>
       </c>
       <c r="C480">
         <v>1</v>
@@ -5665,7 +5665,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>1.006136690954573</v>
+        <v>1.006136690954382</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -5676,7 +5676,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>1.015235351010579</v>
+        <v>1.015235351010503</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -5687,7 +5687,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>1.014171760070214</v>
+        <v>1.014171760070261</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -5698,7 +5698,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>1.015215511458447</v>
+        <v>1.015215511458397</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -5709,7 +5709,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>1.016664368431231</v>
+        <v>1.016664368431166</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -5720,7 +5720,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>1.015042577727284</v>
+        <v>1.015042577727374</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -5731,7 +5731,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>1.012934705284186</v>
+        <v>1.012934705284049</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -5742,7 +5742,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>1.01223781498218</v>
+        <v>1.012237814982205</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -5753,7 +5753,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>1.015149694004348</v>
+        <v>1.015149694004635</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -5764,7 +5764,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>1.012393782011287</v>
+        <v>1.012393782011406</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>1.01664874662328</v>
+        <v>1.016648746623157</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -5786,7 +5786,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>1.012078606717955</v>
+        <v>1.012078606717948</v>
       </c>
       <c r="C492">
         <v>1</v>
@@ -5797,7 +5797,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>1.012119223294359</v>
+        <v>1.012119223294144</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -5808,7 +5808,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>1.014509860006665</v>
+        <v>1.014509860006458</v>
       </c>
       <c r="C494">
         <v>1</v>
@@ -5819,7 +5819,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>1.015381090978686</v>
+        <v>1.015381090978809</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -5830,7 +5830,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>1.019010008488857</v>
+        <v>1.019010008488917</v>
       </c>
       <c r="C496">
         <v>1</v>
@@ -5841,7 +5841,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>1.012814094929042</v>
+        <v>1.012814094929131</v>
       </c>
       <c r="C497">
         <v>1</v>
@@ -5852,7 +5852,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>1.015045016866585</v>
+        <v>1.015045016866629</v>
       </c>
       <c r="C498">
         <v>1</v>
@@ -5863,7 +5863,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>1.01742438394417</v>
+        <v>1.017424383944155</v>
       </c>
       <c r="C499">
         <v>1</v>
@@ -5874,7 +5874,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>1.01491724842653</v>
+        <v>1.014917248426552</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -5885,7 +5885,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>1.01899272982381</v>
+        <v>1.018992729823829</v>
       </c>
       <c r="C501">
         <v>1</v>
@@ -5896,7 +5896,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>1.018939374079093</v>
+        <v>1.01893937407908</v>
       </c>
       <c r="C502">
         <v>1</v>
@@ -5907,7 +5907,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>1.022567958150024</v>
+        <v>1.02256795815002</v>
       </c>
       <c r="C503">
         <v>1</v>
@@ -5918,7 +5918,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>1.020168121407337</v>
+        <v>1.020168121407448</v>
       </c>
       <c r="C504">
         <v>1</v>
@@ -5929,7 +5929,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>1.027750892631052</v>
+        <v>1.027750892631187</v>
       </c>
       <c r="C505">
         <v>1</v>
@@ -5940,7 +5940,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>1.024043229505955</v>
+        <v>1.02404322950591</v>
       </c>
       <c r="C506">
         <v>1</v>
@@ -5951,7 +5951,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>1.023994548766107</v>
+        <v>1.023994548765984</v>
       </c>
       <c r="C507">
         <v>1</v>
@@ -5962,7 +5962,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>1.023856601610731</v>
+        <v>1.023856601610628</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -5973,7 +5973,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>1.020754177861762</v>
+        <v>1.020754177861689</v>
       </c>
       <c r="C509">
         <v>1</v>
@@ -5984,7 +5984,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>1.027442858523226</v>
+        <v>1.027442858523279</v>
       </c>
       <c r="C510">
         <v>1</v>
@@ -5995,7 +5995,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>1.03073855024389</v>
+        <v>1.030738550243766</v>
       </c>
       <c r="C511">
         <v>1</v>
@@ -6006,7 +6006,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>1.025530063111922</v>
+        <v>1.025530063111937</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -6017,7 +6017,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>1.032094609542485</v>
+        <v>1.032094609542692</v>
       </c>
       <c r="C513">
         <v>1</v>
@@ -6028,7 +6028,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>1.03410508097421</v>
+        <v>1.034105080974057</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -6039,7 +6039,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>1.036868357365478</v>
+        <v>1.036868357365482</v>
       </c>
       <c r="C515">
         <v>1</v>
@@ -6050,7 +6050,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>1.032626352452184</v>
+        <v>1.032626352452241</v>
       </c>
       <c r="C516">
         <v>1</v>
@@ -6061,7 +6061,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>1.043494698563298</v>
+        <v>1.043494698563203</v>
       </c>
       <c r="C517">
         <v>1</v>
@@ -6072,7 +6072,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>1.042790679842189</v>
+        <v>1.042790679842187</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -6083,7 +6083,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>1.041583181385074</v>
+        <v>1.041583181385149</v>
       </c>
       <c r="C519">
         <v>1</v>
@@ -6094,7 +6094,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>1.047862982682897</v>
+        <v>1.047862982682936</v>
       </c>
       <c r="C520">
         <v>1</v>
@@ -6105,7 +6105,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>1.049711482277919</v>
+        <v>1.049711482277885</v>
       </c>
       <c r="C521">
         <v>1</v>
@@ -6116,7 +6116,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>1.049773290483071</v>
+        <v>1.049773290482974</v>
       </c>
       <c r="C522">
         <v>1</v>
@@ -6127,7 +6127,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>1.048926777975439</v>
+        <v>1.048926777975374</v>
       </c>
       <c r="C523">
         <v>1</v>
@@ -6138,7 +6138,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>1.049324348436556</v>
+        <v>1.049324348436624</v>
       </c>
       <c r="C524">
         <v>1</v>
@@ -6149,7 +6149,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>1.051594340586129</v>
+        <v>1.051594340586191</v>
       </c>
       <c r="C525">
         <v>1</v>
@@ -6160,7 +6160,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>1.054696187491794</v>
+        <v>1.05469618749181</v>
       </c>
       <c r="C526">
         <v>1</v>
@@ -6171,7 +6171,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>1.052321323991132</v>
+        <v>1.052321323991122</v>
       </c>
       <c r="C527">
         <v>1</v>
@@ -6182,7 +6182,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>1.056287881775106</v>
+        <v>1.05628788177529</v>
       </c>
       <c r="C528">
         <v>1</v>
@@ -6193,7 +6193,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>1.055981074328532</v>
+        <v>1.055981074328481</v>
       </c>
       <c r="C529">
         <v>1</v>
@@ -6204,7 +6204,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>1.056203321903713</v>
+        <v>1.056203321903826</v>
       </c>
       <c r="C530">
         <v>1</v>
@@ -6215,7 +6215,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>1.059017137913718</v>
+        <v>1.059017137913777</v>
       </c>
       <c r="C531">
         <v>1</v>
@@ -6226,7 +6226,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>1.054364530951162</v>
+        <v>1.054364530951344</v>
       </c>
       <c r="C532">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>1.057386239374401</v>
+        <v>1.057386239374642</v>
       </c>
       <c r="C533">
         <v>1</v>
@@ -6248,7 +6248,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>1.05261891466804</v>
+        <v>1.052618914668266</v>
       </c>
       <c r="C534">
         <v>1</v>
@@ -6259,7 +6259,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>1.053386479336125</v>
+        <v>1.053386479335983</v>
       </c>
       <c r="C535">
         <v>1</v>
@@ -6270,7 +6270,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>1.050017398829557</v>
+        <v>1.050017398829542</v>
       </c>
       <c r="C536">
         <v>1</v>
@@ -6281,7 +6281,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>1.050186483604032</v>
+        <v>1.050186483603858</v>
       </c>
       <c r="C537">
         <v>1</v>
@@ -6292,7 +6292,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>1.046005459809713</v>
+        <v>1.046005459809738</v>
       </c>
       <c r="C538">
         <v>1</v>
@@ -6303,7 +6303,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>1.04366798225236</v>
+        <v>1.043667982252442</v>
       </c>
       <c r="C539">
         <v>1</v>
@@ -6314,7 +6314,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>1.044305913706865</v>
+        <v>1.044305913707215</v>
       </c>
       <c r="C540">
         <v>1</v>
@@ -6325,7 +6325,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>1.038934464812019</v>
+        <v>1.038934464812006</v>
       </c>
       <c r="C541">
         <v>1</v>
@@ -6336,7 +6336,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>1.032617796005334</v>
+        <v>1.032617796005372</v>
       </c>
       <c r="C542">
         <v>1</v>
@@ -6347,7 +6347,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>1.03279933119425</v>
+        <v>1.032799331194104</v>
       </c>
       <c r="C543">
         <v>1</v>
@@ -6358,7 +6358,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>1.02769804543161</v>
+        <v>1.027698045431444</v>
       </c>
       <c r="C544">
         <v>1</v>
@@ -6369,7 +6369,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>1.026898476874713</v>
+        <v>1.026898476874655</v>
       </c>
       <c r="C545">
         <v>1</v>
@@ -6380,7 +6380,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>1.021346515860266</v>
+        <v>1.021346515860311</v>
       </c>
       <c r="C546">
         <v>1</v>
@@ -6391,7 +6391,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>1.015671223957495</v>
+        <v>1.015671223957427</v>
       </c>
       <c r="C547">
         <v>1</v>
@@ -6402,7 +6402,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>1.009624348387339</v>
+        <v>1.009624348387195</v>
       </c>
       <c r="C548">
         <v>1</v>
@@ -6413,7 +6413,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>1.003245799675689</v>
+        <v>1.003245799675658</v>
       </c>
       <c r="C549">
         <v>1</v>
@@ -6424,7 +6424,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>1.003115060574162</v>
+        <v>1.003115060574199</v>
       </c>
       <c r="C550">
         <v>1</v>
@@ -6435,10 +6435,10 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>1.000227270219696</v>
+        <v>1.000227270219775</v>
       </c>
       <c r="C551">
-        <v>0.9855852728361303</v>
+        <v>0.9855852728363946</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="C552">
-        <v>0.9762943275921587</v>
+        <v>0.9762943275921455</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6460,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="C553">
-        <v>0.9673361563407555</v>
+        <v>0.9673361563409321</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6471,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="C554">
-        <v>0.9553988984109979</v>
+        <v>0.9553988984110093</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="C555">
-        <v>0.9464234856446121</v>
+        <v>0.9464234856449254</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6493,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="C556">
-        <v>0.9448255753011745</v>
+        <v>0.944825575301077</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6504,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="C557">
-        <v>0.9415744586183014</v>
+        <v>0.941574458618504</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6515,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="C558">
-        <v>0.9288654337601363</v>
+        <v>0.9288654337600512</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6526,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="C559">
-        <v>0.9231054651444154</v>
+        <v>0.923105465144249</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6537,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="C560">
-        <v>0.9257199316005555</v>
+        <v>0.9257199316004676</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6548,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="C561">
-        <v>0.9186329747587688</v>
+        <v>0.9186329747587545</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6559,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="C562">
-        <v>0.9131795805426867</v>
+        <v>0.9131795805425731</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6570,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="C563">
-        <v>0.9205736673835035</v>
+        <v>0.9205736673833507</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6581,7 +6581,7 @@
         <v>1</v>
       </c>
       <c r="C564">
-        <v>0.9276449343978298</v>
+        <v>0.9276449343980654</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6592,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="C565">
-        <v>0.9291532275730789</v>
+        <v>0.9291532275731222</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="C566">
-        <v>0.9269425731309192</v>
+        <v>0.9269425731308915</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6614,7 +6614,7 @@
         <v>1</v>
       </c>
       <c r="C567">
-        <v>0.9365567767960209</v>
+        <v>0.9365567767962357</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6625,7 +6625,7 @@
         <v>1</v>
       </c>
       <c r="C568">
-        <v>0.9453368745311901</v>
+        <v>0.9453368745310444</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6636,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="C569">
-        <v>0.9530570588310642</v>
+        <v>0.953057058831205</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6647,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>0.9518359731115015</v>
+        <v>0.9518359731116868</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6658,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="C571">
-        <v>0.9638075105166682</v>
+        <v>0.9638075105166732</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6669,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="C572">
-        <v>0.9775531446598361</v>
+        <v>0.9775531446597793</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6680,7 +6680,7 @@
         <v>1</v>
       </c>
       <c r="C573">
-        <v>0.98070431668277</v>
+        <v>0.9807043166828722</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6688,10 +6688,10 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>1.000739313458773</v>
+        <v>1.000739313458792</v>
       </c>
       <c r="C574">
-        <v>0.9880754537632102</v>
+        <v>0.9880754537633092</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6699,10 +6699,10 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>1.002280072340618</v>
+        <v>1.00228007234059</v>
       </c>
       <c r="C575">
-        <v>0.9958134672491319</v>
+        <v>0.9958134672490521</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6710,10 +6710,10 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>1.003092035439705</v>
+        <v>1.003092035439685</v>
       </c>
       <c r="C576">
-        <v>0.9999702789193985</v>
+        <v>0.9999702789193227</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6732,7 +6732,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>1.011805243714364</v>
+        <v>1.011805243714209</v>
       </c>
       <c r="C578">
         <v>1</v>
@@ -6743,7 +6743,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>1.007906359429193</v>
+        <v>1.00790635942914</v>
       </c>
       <c r="C579">
         <v>1</v>
@@ -6754,7 +6754,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>1.011632756436363</v>
+        <v>1.011632756436248</v>
       </c>
       <c r="C580">
         <v>1</v>
@@ -6765,7 +6765,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>1.01284838683268</v>
+        <v>1.012848386832717</v>
       </c>
       <c r="C581">
         <v>1</v>
@@ -6776,7 +6776,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>1.011702501298541</v>
+        <v>1.01170250129854</v>
       </c>
       <c r="C582">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>1.01501556256345</v>
+        <v>1.015015562563421</v>
       </c>
       <c r="C583">
         <v>1</v>
@@ -6798,7 +6798,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>1.010220875552002</v>
+        <v>1.010220875552107</v>
       </c>
       <c r="C584">
         <v>1</v>
@@ -6809,7 +6809,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>1.010684884301571</v>
+        <v>1.010684884301504</v>
       </c>
       <c r="C585">
         <v>1</v>
@@ -6820,7 +6820,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>1.013398543869613</v>
+        <v>1.013398543869735</v>
       </c>
       <c r="C586">
         <v>1</v>
@@ -6831,7 +6831,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>1.016463229193016</v>
+        <v>1.016463229192887</v>
       </c>
       <c r="C587">
         <v>1</v>
@@ -6842,7 +6842,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>1.018568130572825</v>
+        <v>1.018568130572804</v>
       </c>
       <c r="C588">
         <v>1</v>
@@ -6853,7 +6853,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>1.016152705317807</v>
+        <v>1.016152705317819</v>
       </c>
       <c r="C589">
         <v>1</v>
@@ -6864,7 +6864,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>1.015548574565921</v>
+        <v>1.015548574565906</v>
       </c>
       <c r="C590">
         <v>1</v>
@@ -6875,7 +6875,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>1.01349496505389</v>
+        <v>1.013494965054078</v>
       </c>
       <c r="C591">
         <v>1</v>
@@ -6886,7 +6886,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>1.014643350899342</v>
+        <v>1.014643350899257</v>
       </c>
       <c r="C592">
         <v>1</v>
@@ -6897,7 +6897,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>1.017346464640766</v>
+        <v>1.017346464640772</v>
       </c>
       <c r="C593">
         <v>1</v>
@@ -6908,7 +6908,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>1.01522776863548</v>
+        <v>1.015227768635606</v>
       </c>
       <c r="C594">
         <v>1</v>
@@ -6919,7 +6919,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>1.017115598979579</v>
+        <v>1.017115598979556</v>
       </c>
       <c r="C595">
         <v>1</v>
@@ -6930,7 +6930,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>1.018914605289796</v>
+        <v>1.0189146052898</v>
       </c>
       <c r="C596">
         <v>1</v>
@@ -6941,7 +6941,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>1.016026450904912</v>
+        <v>1.016026450904848</v>
       </c>
       <c r="C597">
         <v>1</v>
@@ -6952,7 +6952,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>1.018494996641857</v>
+        <v>1.018494996641984</v>
       </c>
       <c r="C598">
         <v>1</v>
@@ -6963,7 +6963,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>1.022162007704522</v>
+        <v>1.022162007704361</v>
       </c>
       <c r="C599">
         <v>1</v>
@@ -6974,7 +6974,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>1.02943905053358</v>
+        <v>1.029439050533622</v>
       </c>
       <c r="C600">
         <v>1</v>
@@ -6985,7 +6985,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>1.028027179371682</v>
+        <v>1.028027179371606</v>
       </c>
       <c r="C601">
         <v>1</v>
@@ -6996,7 +6996,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>1.034700425636925</v>
+        <v>1.034700425636973</v>
       </c>
       <c r="C602">
         <v>1</v>
@@ -7007,7 +7007,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>1.032375110771996</v>
+        <v>1.03237511077193</v>
       </c>
       <c r="C603">
         <v>1</v>
@@ -7018,7 +7018,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>1.039441934922774</v>
+        <v>1.03944193492266</v>
       </c>
       <c r="C604">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>1.045862679230885</v>
+        <v>1.045862679231053</v>
       </c>
       <c r="C605">
         <v>1</v>
@@ -7040,7 +7040,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>1.04153960537173</v>
+        <v>1.041539605371673</v>
       </c>
       <c r="C606">
         <v>1</v>
@@ -7051,7 +7051,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>1.043239003062566</v>
+        <v>1.043239003062706</v>
       </c>
       <c r="C607">
         <v>1</v>
@@ -7062,7 +7062,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>1.047632042516491</v>
+        <v>1.047632042516498</v>
       </c>
       <c r="C608">
         <v>1</v>
@@ -7073,7 +7073,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>1.053556431027239</v>
+        <v>1.053556431027311</v>
       </c>
       <c r="C609">
         <v>1</v>
@@ -7084,7 +7084,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>1.059528395172145</v>
+        <v>1.059528395172318</v>
       </c>
       <c r="C610">
         <v>1</v>
@@ -7095,7 +7095,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>1.054492683440027</v>
+        <v>1.054492683440045</v>
       </c>
       <c r="C611">
         <v>1</v>
@@ -7106,7 +7106,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>1.054473654363322</v>
+        <v>1.054473654363257</v>
       </c>
       <c r="C612">
         <v>1</v>
@@ -7117,7 +7117,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>1.055775011882519</v>
+        <v>1.055775011882515</v>
       </c>
       <c r="C613">
         <v>1</v>
@@ -7128,7 +7128,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>1.053736171803521</v>
+        <v>1.053736171803439</v>
       </c>
       <c r="C614">
         <v>1</v>
@@ -7139,7 +7139,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>1.055033594540383</v>
+        <v>1.055033594540175</v>
       </c>
       <c r="C615">
         <v>1</v>
@@ -7150,7 +7150,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>1.052363531591564</v>
+        <v>1.052363531591757</v>
       </c>
       <c r="C616">
         <v>1</v>
@@ -7161,7 +7161,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>1.048503585700162</v>
+        <v>1.048503585700113</v>
       </c>
       <c r="C617">
         <v>1</v>
@@ -7172,7 +7172,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>1.051328003398277</v>
+        <v>1.051328003398302</v>
       </c>
       <c r="C618">
         <v>1</v>
@@ -7183,7 +7183,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>1.042522300866765</v>
+        <v>1.042522300867073</v>
       </c>
       <c r="C619">
         <v>1</v>
@@ -7194,7 +7194,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>1.04435249819163</v>
+        <v>1.044352498191529</v>
       </c>
       <c r="C620">
         <v>1</v>
@@ -7205,7 +7205,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>1.034799589021093</v>
+        <v>1.034799589021033</v>
       </c>
       <c r="C621">
         <v>1</v>
@@ -7216,7 +7216,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>1.039066155006485</v>
+        <v>1.039066155006487</v>
       </c>
       <c r="C622">
         <v>1</v>
@@ -7227,7 +7227,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>1.034298435349155</v>
+        <v>1.034298435349046</v>
       </c>
       <c r="C623">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>1.034641133753834</v>
+        <v>1.034641133753784</v>
       </c>
       <c r="C624">
         <v>1</v>
@@ -7249,7 +7249,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>1.031173431701202</v>
+        <v>1.031173431701232</v>
       </c>
       <c r="C625">
         <v>1</v>
@@ -7260,7 +7260,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>1.02142202859691</v>
+        <v>1.021422028596847</v>
       </c>
       <c r="C626">
         <v>1</v>
@@ -7271,7 +7271,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>1.023156360856752</v>
+        <v>1.023156360856723</v>
       </c>
       <c r="C627">
         <v>1</v>
@@ -7282,7 +7282,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>1.023592463724741</v>
+        <v>1.023592463724833</v>
       </c>
       <c r="C628">
         <v>1</v>
@@ -7293,7 +7293,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>1.020598085695737</v>
+        <v>1.020598085695685</v>
       </c>
       <c r="C629">
         <v>1</v>
@@ -7304,7 +7304,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>1.025220795023481</v>
+        <v>1.025220795023495</v>
       </c>
       <c r="C630">
         <v>1</v>
@@ -7315,7 +7315,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>1.029264831798021</v>
+        <v>1.029264831797933</v>
       </c>
       <c r="C631">
         <v>1</v>
@@ -7326,7 +7326,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>1.030589513794316</v>
+        <v>1.030589513794246</v>
       </c>
       <c r="C632">
         <v>1</v>
@@ -7337,7 +7337,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>1.025992680839288</v>
+        <v>1.025992680839256</v>
       </c>
       <c r="C633">
         <v>1</v>
@@ -7348,7 +7348,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>1.032653315852151</v>
+        <v>1.032653315852172</v>
       </c>
       <c r="C634">
         <v>1</v>
@@ -7359,7 +7359,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>1.032211675754071</v>
+        <v>1.032211675753899</v>
       </c>
       <c r="C635">
         <v>1</v>
@@ -7370,7 +7370,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>1.032695250821544</v>
+        <v>1.032695250821534</v>
       </c>
       <c r="C636">
         <v>1</v>
@@ -7381,7 +7381,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>1.039541328607787</v>
+        <v>1.039541328607858</v>
       </c>
       <c r="C637">
         <v>1</v>
@@ -7392,7 +7392,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>1.036699151409821</v>
+        <v>1.036699151409823</v>
       </c>
       <c r="C638">
         <v>1</v>
@@ -7403,7 +7403,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>1.038934116114505</v>
+        <v>1.038934116114411</v>
       </c>
       <c r="C639">
         <v>1</v>
@@ -7414,7 +7414,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>1.035167878573328</v>
+        <v>1.035167878573398</v>
       </c>
       <c r="C640">
         <v>1</v>
@@ -7425,7 +7425,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>1.031275648311926</v>
+        <v>1.031275648312143</v>
       </c>
       <c r="C641">
         <v>1</v>
@@ -7436,7 +7436,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>1.033879445115956</v>
+        <v>1.033879445115781</v>
       </c>
       <c r="C642">
         <v>1</v>
@@ -7447,7 +7447,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>1.020768055045226</v>
+        <v>1.020768055045209</v>
       </c>
       <c r="C643">
         <v>1</v>
@@ -7458,7 +7458,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>1.027098572224382</v>
+        <v>1.027098572224431</v>
       </c>
       <c r="C644">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>1.014938419399509</v>
+        <v>1.014938419399693</v>
       </c>
       <c r="C645">
         <v>1</v>
@@ -7480,7 +7480,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>1.015977105173803</v>
+        <v>1.015977105173863</v>
       </c>
       <c r="C646">
         <v>1</v>
@@ -7491,7 +7491,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>1.007894549657248</v>
+        <v>1.007894549657233</v>
       </c>
       <c r="C647">
         <v>1</v>
@@ -7502,7 +7502,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>1.004253761088657</v>
+        <v>1.004253761088684</v>
       </c>
       <c r="C648">
         <v>1</v>
@@ -7513,7 +7513,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>1.003605185319941</v>
+        <v>1.003605185319882</v>
       </c>
       <c r="C649">
         <v>1</v>
@@ -7524,10 +7524,10 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>1.002611235090742</v>
+        <v>1.002611235090725</v>
       </c>
       <c r="C650">
-        <v>0.9975312479153219</v>
+        <v>0.9975312479152806</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7538,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="C651">
-        <v>0.9827565166060878</v>
+        <v>0.9827565166061842</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7549,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="C652">
-        <v>0.9730440910378899</v>
+        <v>0.973044091037826</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7560,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="C653">
-        <v>0.9655332473787429</v>
+        <v>0.9655332473786264</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7571,7 +7571,7 @@
         <v>1</v>
       </c>
       <c r="C654">
-        <v>0.95944297100122</v>
+        <v>0.9594429710011904</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7582,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="C655">
-        <v>0.9588911509496695</v>
+        <v>0.9588911509497852</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7593,7 +7593,7 @@
         <v>1</v>
       </c>
       <c r="C656">
-        <v>0.9532007028415319</v>
+        <v>0.953200702841434</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>0.94924806056321</v>
+        <v>0.9492480605631091</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7615,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="C658">
-        <v>0.9435761392442513</v>
+        <v>0.9435761392442803</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7626,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="C659">
-        <v>0.9469534420942551</v>
+        <v>0.9469534420942805</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7637,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>0.9456699723135377</v>
+        <v>0.945669972313564</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7648,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="C661">
-        <v>0.9498526030163352</v>
+        <v>0.9498526030165416</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7659,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="C662">
-        <v>0.949496178538709</v>
+        <v>0.9494961785387384</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7670,7 +7670,7 @@
         <v>1</v>
       </c>
       <c r="C663">
-        <v>0.9539581915875432</v>
+        <v>0.9539581915876614</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7681,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="C664">
-        <v>0.961660872850357</v>
+        <v>0.9616608728502456</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7692,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="C665">
-        <v>0.9662756152403922</v>
+        <v>0.9662756152405709</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7703,7 +7703,7 @@
         <v>1</v>
       </c>
       <c r="C666">
-        <v>0.9683327984133613</v>
+        <v>0.9683327984134295</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7714,7 +7714,7 @@
         <v>1</v>
       </c>
       <c r="C667">
-        <v>0.9793654965992142</v>
+        <v>0.9793654965993647</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="C668">
-        <v>0.9803414838483004</v>
+        <v>0.9803414838484417</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7736,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="C669">
-        <v>0.9836303875605398</v>
+        <v>0.9836303875607197</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7744,10 +7744,10 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>1.00143586790256</v>
+        <v>1.001435867902509</v>
       </c>
       <c r="C670">
-        <v>0.991549473989835</v>
+        <v>0.9915494739896985</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7755,7 +7755,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>1.003229389933489</v>
+        <v>1.003229389933456</v>
       </c>
       <c r="C671">
         <v>1</v>
@@ -7766,7 +7766,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>1.003826510687558</v>
+        <v>1.003826510687612</v>
       </c>
       <c r="C672">
         <v>1</v>
@@ -7777,7 +7777,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>1.007730419358254</v>
+        <v>1.007730419358146</v>
       </c>
       <c r="C673">
         <v>1</v>
